--- a/0_data/9_evaluation/distances/a1_50/a1_50_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/a1_50/a1_50_kl_oa_metrics.xlsx
@@ -532,69 +532,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.90379825653798</v>
+        <v>72.32002490660024</v>
       </c>
       <c r="C2" t="n">
         <v>11.04109589041096</v>
       </c>
       <c r="D2" t="n">
-        <v>3.426064757160648</v>
+        <v>3.427384806973848</v>
       </c>
       <c r="E2" t="n">
         <v>17.9788293897883</v>
       </c>
       <c r="F2" t="n">
-        <v>6.020622665006226</v>
+        <v>6.023723536737235</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008468244084682441</v>
+        <v>0.008455790784557908</v>
       </c>
       <c r="H2" t="n">
-        <v>2.397770859277708</v>
+        <v>2.388418430884184</v>
       </c>
       <c r="I2" t="n">
-        <v>5.936488169364882</v>
+        <v>124.4831880448319</v>
       </c>
       <c r="J2" t="n">
-        <v>337.4308841843089</v>
+        <v>337.398505603985</v>
       </c>
       <c r="K2" t="n">
-        <v>5.658555417185553</v>
+        <v>5.661469489414695</v>
       </c>
       <c r="L2" t="n">
-        <v>3.006226650062267</v>
+        <v>3.005217932752179</v>
       </c>
       <c r="M2" t="n">
-        <v>4.87225404732254</v>
+        <v>4.837895392278954</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[79.54794520547945, 26.615193026151932, 119.90037359900374, 47.342465753424655, 13.165628891656288, 22.998754669987548, 0.2129514321295143, 14.250311332503113, 3.25653798256538, 4.266500622665006, 1.7148194271481942, 0.1320049813200498, 2.667496886674969, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[79.03113325031133, 26.998754669987548, 121.60398505603985, 47.21793275217933, 12.58530510585305, 22.265255292652554, 0.1917808219178082, 14.12826899128269, 3.2391033623910337, 4.247820672478206, 1.6874221668742218, 0.12702366127023662, 2.7148194271481945, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[61.74595267745953, 1.1718555417185554, 58.93648816936488, 1.0087173100871731, 65.3175591531756, 13.176836861768368, 1.5031133250311333, 53.34620174346202, 1.4333748443337484, 57.05230386052304, 0.8194271481942715, 21.919053549190537]</t>
+          <t>[30.14819427148194, 24.541718555417187, 32.04607721046077, 26.201743462017436, 30.27895392278954, 28.179327521793276, 25.910336239103362, 32.47571606475716, 22.805728518057286, 30.58156911581569, 25.023661270236612, 29.205479452054796]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[11.666251556662516, 71.21793275217932, 148.82814445828146, 24.763387297633873, 40.52926525529265, 3.1805728518057284, 9.570361145703611, 2.2577833125778333, 8.5093399750934, 1.1095890410958904, 2.4420921544209215, 0.6313823163138231, 3.4221668742216687, 0.5255292652552926, 1.7036114570361145, 0.42092154420921546, 3.24906600249066, 0.24283935242839352, 0.6973848069738481, 0.1581569115815691, 0.45828144458281445, 0.0759651307596513, 0.17683686176836863, 0.031133250311332503, 0.3026151930261519, 0.0224159402241594, 0.0647571606475716, 0.014943960149439602, 0.10211706102117062, 0.0136986301369863, 0.0323785803237858, 0.009962640099626401]</t>
+          <t>[7.661270236612703, 78.26276463262765, 146.58779576587796, 24.058530510585307, 40.43586550435865, 3.1892901618929015, 9.550435865504358, 2.2552926525529267, 8.511830635118306, 1.108343711083437, 2.4458281444582815, 0.6301369863013698, 3.4221668742216687, 0.5255292652552926, 1.706102117061021, 0.41967621419676215, 3.2428393524283936, 0.23661270236612703, 0.6961394769613948, 0.1569115815691158, 0.45828144458281445, 0.06973848069738481, 0.17683686176836863, 0.031133250311332503, 0.3001245330012453, 0.0224159402241594, 0.0647571606475716, 0.012453300124533, 0.10336239103362391, 0.0136986301369863, 0.0323785803237858, 0.009962640099626401]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[4.204234122042341, 113.33001245330013, 59.40722291407223, 77.02366127023662, 13.826899128268991, 17.907845579078455, 0.0, 21.01120797011208, 0.0, 4.919053549190536, 2.4782067247820674, 4.731008717310087, 1.775840597758406, 1.86799501867995, 0.0, 4.171855541718555, 0.0, 1.273972602739726, 0.6376089663760897, 1.4408468244084682, 0.635118306351183, 0.7447073474470735, 0.0, 1.5865504358655043, 0.0, 0.5491905354919053, 0.28268991282689915, 0.6052303860523038, 0.24533001245330013, 0.3125778331257783, 0.0, 0.797011207970112, 0.0062266500622665, 0.2054794520547945, 0.0859277708592777, 0.273972602739726, 0.038605230386052306, 0.08841843088418432, 0.0012453300124533001, 0.21419676214196762, 0.0049813200498132005, 0.048567870485678705, 0.0448318804483188, 0.09713574097135741, 0.029887920298879204, 0.0273972602739726, 0.0012453300124533001, 0.12577833125778332, 0.0, 0.026151930261519303, 0.0186799501867995, 0.0448318804483188, 0.009962640099626401, 0.012453300124533, 0.0012453300124533001, 0.047322540473225407, 0.0, 0.012453300124533, 0.008717310087173101, 0.0224159402241594, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.15317559153175592]</t>
+          <t>[7.043586550435865, 119.93399750933997, 49.99003735990038, 76.98505603985056, 13.828144458281445, 17.90535491905355, 0.0062266500622665, 21.001245330012452, 0.0012453300124533001, 4.914072229140722, 2.476961394769614, 4.7272727272727275, 1.7795765877957659, 1.8655043586550435, 0.0037359900373599006, 4.168119551681196, 0.0012453300124533001, 1.273972602739726, 0.6363636363636364, 1.4371108343711083, 0.6376089663760897, 0.7447073474470735, 0.0, 1.5840597758405977, 0.0, 0.5491905354919053, 0.28144458281444584, 0.6052303860523038, 0.24408468244084683, 0.3125778331257783, 0.0, 0.7982565379825654, 0.0, 0.2054794520547945, 0.0859277708592777, 0.2777085927770859, 0.039850560398505604, 0.08841843088418432, 0.0, 0.21544209215442092, 0.0, 0.049813200498132, 0.04234122042341221, 0.099626400996264, 0.029887920298879204, 0.0273972602739726, 0.0, 0.1232876712328767, 0.0, 0.026151930261519303, 0.0224159402241594, 0.047322540473225407, 0.009962640099626401, 0.012453300124533, 0.0, 0.05105853051058531, 0.0, 0.012453300124533, 0.009962640099626401, 0.024906600249066, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.14694894146948942]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[15.838107098381071, 0.10336239103362391, 15.991282689912827, 0.07098381070983811, 5.257783312577833, 0.8268991282689913, 0.012453300124533, 4.24159402241594, 0.05977584059775841, 10.712328767123287, 0.16313823163138233, 8.001245330012454], [0.10460772104607721, 0.26774595267745954, 0.15442092154420922, 0.20174346201743462, 0.05105853051058531, 0.06973848069738481, 0.023661270236612703, 0.0024906600249066002, 0.0547945205479452, 0.037359900373599, 0.09339975093399751, 0.06973848069738481], [17.341220423412203, 0.14694894146948942, 13.892901618929017, 0.038605230386052306, 18.13947696139477, 0.7932752179327521, 0.09838107098381071, 3.7696139476961394, 0.009962640099626401, 2.7073474470734746, 0.024906600249066, 1.9327521793275217], [0.05105853051058531, 0.24283935242839352, 0.11207970112079702, 0.19427148194271482, 0.047322540473225407, 0.24283935242839352, 0.007471980074719801, 0.0037359900373599006, 0.053549190535491904, 0.0, 0.05105853051058531, 0.0], [5.815691158156912, 0.0410958904109589, 20.398505603985058, 0.05603985056039851, 15.647571606475717, 4.443337484433375, 0.3586550435865504, 11.643835616438356, 0.0921544209215442, 5.462017434620174, 0.0024906600249066002, 1.3138231631382316], [0.47696139476961397, 0.0684931506849315, 0.7347447073474471, 0.30510585305105853, 5.266500622665006, 3.019925280199253, 0.08343711083437111, 2.277708592777086, 0.17559153175591533, 0.6438356164383562, 0.0547945205479452, 0.0647571606475716], [0.0024906600249066002, 0.0136986301369863, 0.10709838107098381, 0.0136986301369863, 0.46326276463262767, 0.09713574097135741, 0.29514321295143214, 0.24533001245330013, 0.058530510585305104, 0.14072229140722292, 0.014943960149439602, 0.0460772104607721], [4.1569115815691156, 0.0024906600249066002, 3.671232876712329, 0.0224159402241594, 12.721046077210461, 2.74346201743462, 0.30510585305105853, 13.564134495641344, 0.08841843088418432, 14.910336239103362, 0.021170610211706103, 1.108343711083437], [0.023661270236612703, 0.0547945205479452, 0.024906600249066, 0.0547945205479452, 0.10834371108343711, 0.1706102117061021, 0.0448318804483188, 0.0722291407222914, 0.386052303860523, 0.26650062266500624, 0.1855541718555417, 0.0361145703611457], [10.846824408468244, 0.033623910336239106, 2.7783312577833126, 0.009962640099626401, 6.337484433374844, 0.6089663760896638, 0.199252801992528, 15.02988792029888, 0.21544209215442092, 15.14321295143213, 0.0448318804483188, 5.469489414694894], [0.1382316313823163, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.07347447073474471, 0.007471980074719801, 0.0273972602739726, 0.18057285180572852, 0.058530510585305104, 0.136986301369863, 0.0323785803237858], [6.748443337484433, 0.0921544209215442, 1.0323785803237857, 0.0, 0.9738480697384807, 0.0759651307596513, 0.06724782067247821, 2.227895392278954, 0.058530510585305104, 6.773349937733499, 0.026151930261519303, 3.829389788293898]]</t>
+          <t>[[7.108343711083437, 0.8692403486924035, 5.4458281444582815, 2.1556662515566627, 0.7870485678704857, 1.4184308841843087, 0.019925280199252802, 1.887920298879203, 0.6313823163138231, 2.8617683686176836, 5.102117061021171, 1.7471980074719802], [1.0523038605230386, 5.906600249066003, 1.149439601494396, 4.331257783312578, 1.884184308841843, 0.5367372353673724, 1.1755915317559154, 0.0112079701120797, 1.211706102117061, 0.6973848069738481, 1.8032378580323787, 4.701120797011208], [6.3300124533001245, 1.3960149439601495, 7.851805728518057, 1.0062266500622665, 5.6313823163138235, 2.1257783312577834, 0.7858032378580324, 1.8854296388542964, 0.0136986301369863, 1.7447073474470736, 0.564134495641345, 2.6251556662515565], [2.232876712328767, 4.877957658779577, 1.2017434620174345, 6.325031133250311, 1.1220423412204235, 4.866749688667497, 1.7509339975093399, 0.6363636363636364, 1.1606475716064757, 0.0186799501867995, 1.290161892901619, 0.6413449564134496], [0.8194271481942715, 1.9066002490660026, 6.731008717310087, 1.3138231631382316, 7.037359900373599, 1.1232876712328768, 4.606475716064757, 2.4744707347447075, 0.5990037359900373, 1.7982565379825655, 0.0161892901618929, 1.775840597758406], [1.4383561643835616, 0.6438356164383562, 2.3935242839352426, 5.364881693648817, 1.3810709838107098, 6.8816936488169365, 0.7471980074719801, 5.2453300124533, 1.8480697384806974, 0.6089663760896638, 1.5205479452054795, 0.017434620174346202], [0.021170610211706103, 1.3549190535491906, 0.9551681195516812, 1.9414694894146949, 5.442092154420922, 0.9215442092154421, 6.273972602739726, 1.2714819427148194, 3.5541718555417185, 1.9825653798256537, 0.39352428393524286, 1.729763387297634], [1.7808219178082192, 0.0186799501867995, 1.526774595267746, 0.688667496886675, 2.8443337484433373, 6.057285180572852, 1.5703611457036115, 8.448318804483188, 0.8655043586550436, 5.74346201743462, 1.983810709838107, 0.8480697384806973], [0.5130759651307597, 1.0635118306351183, 0.012453300124533, 1.261519302615193, 0.5927770859277709, 2.019925280199253, 4.453300124533001, 1.082191780821918, 5.2640099626401, 0.7646326276463262, 3.980074719800747, 1.729763387297634], [2.712328767123288, 0.5616438356164384, 1.7783312577833126, 0.0136986301369863, 1.917808219178082, 0.7571606475716065, 2.24906600249066, 6.488169364881694, 1.0610211706102117, 6.9775840597758405, 0.9265255292652553, 5.057285180572852], [4.627646326276463, 1.6127023661270237, 0.5454545454545454, 1.2179327521793275, 0.008717310087173101, 1.3748443337484433, 0.6114570361145704, 2.032378580323786, 4.530510585305106, 1.2042341220423411, 6.306351183063512, 0.8754669987546699], [1.4346201743462017, 4.259028642590287, 2.368617683686177, 0.5105853051058531, 1.5342465753424657, 0.019925280199252802, 1.6002490660024906, 0.9115815691158157, 1.9975093399750934, 6.070983810709838, 1.049813200498132, 7.364881693648817]]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[[0.0460772104607721, 0.9302615193026152, 0.6824408468244084, 1.7770859277708593, 0.11830635118306351, 0.14819427148194272, 0.0, 0.3163138231631382, 0.0, 0.014943960149439602, 0.026151930261519303, 0.029887920298879204, 0.008717310087173101, 0.012453300124533, 0.0, 0.021170610211706103, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.6562889165628891, 60.18804483188045, 16.866749688667497, 16.59526774595268, 3.4632627646326277, 5.72851805728518, 0.0, 3.1818181818181817, 0.0, 1.5790784557907847, 0.6662515566625156, 0.8418430884184309, 0.46077210460772106, 0.6201743462017435, 0.0, 0.7434620174346201, 0.0, 0.30635118306351183, 0.16189290161892902, 0.1780821917808219, 0.0647571606475716, 0.16687422166874222, 0.0, 0.2590286425902864, 0.0, 0.09464508094645081, 0.0410958904109589, 0.07970112079701121, 0.06351183063511831, 0.06351183063511831, 0.0, 0.10211706102117062, 0.0, 0.039850560398505604, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.029887920298879204, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0], [0.21544209215442092, 16.1706102117061, 20.91780821917808, 9.947696139476962, 2.6039850560398508, 2.5006226650062264, 0.0, 2.663760896637609, 0.0, 0.7285180572851806, 0.5417185554171855, 0.5691158156911582, 0.22042341220423411, 0.286425902864259, 0.0, 0.5541718555417185, 0.0, 0.20298879202988793, 0.11706102117061021, 0.2403486924034869, 0.13449564134495642, 0.09713574097135741, 0.0, 0.20921544209215442, 0.0, 0.062266500622665005, 0.0547945205479452, 0.05977584059775841, 0.0361145703611457, 0.04234122042341221, 0.0, 0.06102117061021171, 0.0049813200498132005, 0.0323785803237858, 0.0062266500622665, 0.034869240348692404, 0.0024906600249066002, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.014943960149439602, 0.0024906600249066002, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [2.4819427148194273, 15.643835616438356, 8.905354919053549, 27.576587795765878, 3.232876712328767, 3.5305105853051058, 0.0, 6.2640099626401, 0.0, 1.2627646326276463, 0.6413449564134496, 1.7334993773349938, 0.5442092154420921, 0.5242839352428393, 0.0, 1.3872976338729763, 0.0, 0.41344956413449563, 0.1581569115815691, 0.4931506849315068, 0.15940224159402241, 0.21419676214196762, 0.0, 0.47447073474470736, 0.0, 0.16811955168119552, 0.074719800747198, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.26899128268991285, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11083437110834371, 0.0062266500622665, 0.008717310087173101, 0.0, 0.0859277708592777, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.014943960149439602, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.037359900373599], [0.1917808219178082, 2.983810709838107, 2.247820672478207, 3.3262764632627646, 1.6413449564134495, 0.9190535491905355, 0.0, 0.9215442092154421, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2590286425902864, 0.11083437110834371, 0.08841843088418432, 0.0, 0.22914072229140722, 0.0, 0.05977584059775841, 0.037359900373599, 0.06724782067247821, 0.033623910336239106, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.017434620174346202, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.04234122042341221, 0.0, 0.024906600249066, 0.0012453300124533001, 0.009962640099626401, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.21793275217932753, 4.850560398505604, 2.4919053549190537, 3.5541718555417185, 0.9315068493150684, 2.4259028642590286, 0.0, 1.1668742216687422, 0.0, 0.3287671232876712, 0.1295143212951432, 0.30884184308841844, 0.1506849315068493, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.06724782067247821, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.05105853051058531, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 3.6463262764632627, 2.220423412204234, 5.180572851805729, 0.7708592777085927, 1.0049813200498132, 0.0, 4.199252801992528, 0.0, 0.29638854296388545, 0.16064757160647572, 0.6127023661270237, 0.14570361145703611, 0.11457036114570361, 0.0, 0.6674968866749689, 0.0, 0.11207970112079702, 0.08841843088418432, 0.261519302615193, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33374844333748444, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.1917808219178082, 0.0, 0.008717310087173101, 0.014943960149439602, 0.048567870485678705, 0.012453300124533, 0.0062266500622665, 0.0, 0.07970112079701121, 0.0, 0.009962640099626401, 0.014943960149439602, 0.026151930261519303, 0.0049813200498132005, 0.008717310087173101, 0.0, 0.07347447073474471, 0.0, 0.0062266500622665, 0.0049813200498132005, 0.0112079701120797, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0136986301369863, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.04234122042341221], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 1.933997509339975, 0.763387297633873, 1.211706102117061, 0.1307596513075965, 0.22540473225404734, 0.0, 0.25653798256537985, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.014943960149439602, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.009962640099626401], [0.0037359900373599006, 0.7658779576587795, 0.6811955168119551, 0.572851805728518, 0.09713574097135741, 0.0896637608966376, 0.0, 0.12204234122042341, 0.0, 0.008717310087173101, 0.008717310087173101, 0.031133250311332503, 0.009962640099626401, 0.0136986301369863, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.14196762141967623, 1.2104607721046077, 0.6948941469489415, 1.6376089663760898, 0.12702366127023662, 0.17559153175591533, 0.0, 0.29389788293897884, 0.0, 0.05977584059775841, 0.0136986301369863, 0.11955168119551682, 0.021170610211706103, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.007471980074719801, 0.5828144458281445, 0.3125778331257783, 0.4259028642590286, 0.05977584059775841, 0.1432129514321295, 0.0, 0.09339975093399751, 0.0, 0.0448318804483188, 0.014943960149439602, 0.009962640099626401, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.034869240348692404, 0.6425902864259029, 0.3424657534246575, 0.45080946450809467, 0.049813200498132, 0.1519302615193026, 0.0, 0.074719800747198, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0049813200498132005, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9115815691158157, 0.6264009962640099, 1.4333748443337484, 0.1432129514321295, 0.1980074719800747, 0.0, 0.50186799501868, 0.0, 0.028642590286425903, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.057285180572851806, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0112079701120797, 0.0, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.0161892901618929, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.4396014943960149, 0.18306351183063513, 0.33499377334993774, 0.058530510585305104, 0.07347447073474471, 0.0, 0.062266500622665005, 0.0, 0.026151930261519303, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0012453300124533001, 0.1930261519302615, 0.1357409713574097, 0.1930261519302615, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.05105853051058531, 0.31880448318804483, 0.273972602739726, 0.4520547945205479, 0.052303860523038606, 0.07098381070983811, 0.0, 0.10211706102117062, 0.0, 0.0136986301369863, 0.012453300124533, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.22042341220423411, 0.0921544209215442, 0.1643835616438356, 0.028642590286425903, 0.034869240348692404, 0.0, 0.021170610211706103, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.2266500622665006, 0.1295143212951432, 0.15940224159402241, 0.031133250311332503, 0.047322540473225407, 0.0, 0.05105853051058531, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.33499377334993774, 0.2054794520547945, 0.5330012453300125, 0.062266500622665005, 0.08094645080946451, 0.0, 0.16936488169364883, 0.0, 0.024906600249066, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.16189290161892902, 0.0660024906600249, 0.12826899128268993, 0.021170610211706103, 0.0547945205479452, 0.0, 0.0323785803237858, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06351183063511831, 0.039850560398505604, 0.062266500622665005, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.039850560398505604, 0.11830635118306351, 0.0647571606475716, 0.20423412204234123, 0.0323785803237858, 0.039850560398505604, 0.0, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052303860523038606, 0.0136986301369863, 0.0722291407222914, 0.017434620174346202, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0037359900373599006, 0.053549190535491904, 0.0410958904109589, 0.049813200498132, 0.007471980074719801, 0.029887920298879204, 0.0, 0.034869240348692404, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13325031133250312, 0.07970112079701121, 0.23661270236612703, 0.034869240348692404, 0.052303860523038606, 0.0, 0.10336239103362391, 0.0, 0.0037359900373599006, 0.007471980074719801, 0.0224159402241594, 0.0062266500622665, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06724782067247821, 0.024906600249066, 0.031133250311332503, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0161892901618929, 0.0273972602739726, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024906600249066, 0.0448318804483188, 0.033623910336239106, 0.09339975093399751, 0.0062266500622665, 0.0062266500622665, 0.0, 0.026151930261519303, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0273972602739726, 0.0112079701120797, 0.014943960149439602, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.012453300124533, 0.0224159402241594, 0.08841843088418432, 0.0049813200498132005, 0.024906600249066, 0.0, 0.028642590286425903, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0062266500622665, 0.009962640099626401, 0.009962640099626401, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.007471980074719801, 0.0024906600249066002, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009962640099626401, 0.007471980074719801, 0.0049813200498132005, 0.039850560398505604, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0112079701120797, 0.026151930261519303, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.05603985056039851, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.019925280199252802, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0,</t>
+          <t>[[0.047322540473225407, 2.800747198007472, 1.2627646326276463, 2.019925280199253, 0.1780821917808219, 0.18057285180572852, 0.0, 0.33374844333748444, 0.0, 0.023661270236612703, 0.028642590286425903, 0.037359900373599, 0.0161892901618929, 0.012453300124533, 0.0, 0.026151930261519303, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0024906600249066002, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0], [3.5043586550435863, 64.20298879202988, 15.627646326276464, 16.869240348692404, 3.795765877957659, 5.833125778331258, 0.0, 3.2640099626401, 0.0, 1.63013698630137, 0.684931506849315, 0.8592777085927771, 0.46450809464508097, 0.6264009962640099, 0.0, 0.7584059775840598, 0.0, 0.3125778331257783, 0.16936488169364883, 0.20298879202988793, 0.0647571606475716, 0.16811955168119552, 0.0, 0.2714819427148194, 0.0, 0.09464508094645081, 0.048567870485678705, 0.07970112079701121, 0.0647571606475716, 0.06351183063511831, 0.0, 0.10460772104607721, 0.0, 0.048567870485678705, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.029887920298879204, 0.0, 0.009962640099626401, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0037359900373599006, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0], [0.21170610211706103, 14.932752179327522, 14.090909090909092, 9.455790784557907, 2.2141967621419676, 2.3636363636363638, 0.0, 2.564134495641345, 0.0, 0.6687422166874222, 0.5205479452054794, 0.5454545454545454, 0.20921544209215442, 0.28019925280199254, 0.0, 0.5342465753424658, 0.0, 0.19676214196762143, 0.1095890410958904, 0.21544209215442092, 0.1307596513075965, 0.09464508094645081, 0.0, 0.19676214196762143, 0.0, 0.062266500622665005, 0.047322540473225407, 0.05977584059775841, 0.033623910336239106, 0.04234122042341221, 0.0, 0.058530510585305104, 0.0, 0.023661270236612703, 0.0062266500622665, 0.034869240348692404, 0.0024906600249066002, 0.0112079701120797, 0.0, 0.0049813200498132005, 0.0, 0.014943960149439602, 0.0024906600249066002, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [2.4744707347447075, 16.201743462017436, 8.35865504358655, 27.530510585305105, 3.2353673723536738, 3.5305105853051058, 0.0024906600249066002, 6.261519302615193, 0.0, 1.2590286425902864, 0.6413449564134496, 1.7322540473225405, 0.5442092154420921, 0.523038605230386, 0.0012453300124533001, 1.3872976338729763, 0.0, 0.4122042341220423, 0.1569115815691158, 0.4919053549190536, 0.16064757160647572, 0.21419676214196762, 0.0, 0.47322540473225405, 0.0, 0.16811955168119552, 0.07347447073474471, 0.24533001245330013, 0.06724782067247821, 0.08343711083437111, 0.0, 0.26899128268991285, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11457036114570361, 0.0062266500622665, 0.008717310087173101, 0.0, 0.0859277708592777, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.017434620174346202, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.0410958904109589], [0.1917808219178082, 3.348692403486924, 1.8866749688667497, 3.328767123287671, 1.6363636363636365, 0.9202988792029888, 0.0, 0.9215442092154421, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2577833125778331, 0.11207970112079702, 0.08841843088418432, 0.0024906600249066002, 0.2266500622665006, 0.0, 0.05977584059775841, 0.037359900373599, 0.0660024906600249, 0.034869240348692404, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.017434620174346202, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.04234122042341221, 0.0, 0.024906600249066, 0.0012453300124533001, 0.009962640099626401, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.2191780821917808, 5.021170610211706, 2.3225404732254047, 3.551681195516812, 0.9302615193026152, 2.4246575342465753, 0.0012453300124533001, 1.1643835616438356, 0.0, 0.3287671232876712, 0.1295143212951432, 0.30884184308841844, 0.1506849315068493, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.0660024906600249, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.05105853051058531, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 3.911581569115816, 1.9601494396014945, 5.174346201743462, 0.7708592777085927, 1.0024906600249066, 0.0, 4.196762141967621, 0.0, 0.29638854296388545, 0.16064757160647572, 0.6102117061021171, 0.14694894146948942, 0.11457036114570361, 0.0, 0.6674968866749689, 0.0, 0.11083437110834371, 0.08841843088418432, 0.261519302615193, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33374844333748444, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.1917808219178082, 0.0, 0.008717310087173101, 0.014943960149439602, 0.048567870485678705, 0.012453300124533, 0.0062266500622665, 0.0, 0.07970112079701121, 0.0, 0.0112079701120797, 0.012453300124533, 0.026151930261519303, 0.0049813200498132005, 0.008717310087173101, 0.0, 0.07347447073474471, 0.0, 0.0062266500622665, 0.0062266500622665, 0.0112079701120797, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0136986301369863, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0410958904109589], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 2.067247820672478, 0.6276463262764632, 1.2104607721046077, 0.1307596513075965, 0.22540473225404734, 0.0, 0.25653798256537985, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.007471980074719801, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.014943960149439602, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.008717310087173101], [0.0062266500622665, 0.8841843088418431, 0.5616438356164384, 0.572851805728518, 0.09713574097135741, 0.0896637608966376, 0.0, 0.12204234122042341, 0.0, 0.008717310087173101, 0.008717310087173101, 0.031133250311332503, 0.009962640099626401, 0.0136986301369863, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.14072229140722292, 1.2889165628891657, 0.6189290161892902, 1.6363636363636365, 0.12702366127023662, 0.17559153175591533, 0.0, 0.29265255292652553, 0.0, 0.05977584059775841, 0.0136986301369863, 0.11706102117061021, 0.0224159402241594, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.007471980074719801, 0.6301369863013698, 0.26650062266500624, 0.4259028642590286, 0.05977584059775841, 0.1432129514321295, 0.0, 0.09339975093399751, 0.0012453300124533001, 0.0448318804483188, 0.014943960149439602, 0.0112079701120797, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.034869240348692404, 0.6948941469489415, 0.2889165628891656, 0.45080946450809467, 0.049813200498132, 0.1519302615193026, 0.0, 0.074719800747198, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9663760896637609, 0.5678704856787049, 1.4333748443337484, 0.1432129514321295, 0.1980074719800747, 0.0, 0.50186799501868, 0.0, 0.028642590286425903, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.057285180572851806, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0112079701120797, 0.0, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.0161892901618929, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.46450809464508097, 0.1569115815691158, 0.33499377334993774, 0.058530510585305104, 0.07347447073474471, 0.0012453300124533001, 0.06102117061021171, 0.0, 0.026151930261519303, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0012453300124533001, 0.20921544209215442, 0.11955168119551682, 0.1930261519302615, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.049813200498132, 0.3287671232876712, 0.2627646326276463, 0.4520547945205479, 0.052303860523038606, 0.07098381070983811, 0.0, 0.10087173100871731, 0.0, 0.0136986301369863, 0.012453300124533, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.22914072229140722, 0.08841843088418432, 0.16189290161892902, 0.028642590286425903, 0.034869240348692404, 0.0, 0.0224159402241594, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.2403486924034869, 0.11581569115815692, 0.15940224159402241, 0.031133250311332503, 0.047322540473225407, 0.0, 0.05105853051058531, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.34620174346201743, 0.1930261519302615, 0.5330012453300125, 0.062266500622665005, 0.08094645080946451, 0.0, 0.16936488169364883, 0.0, 0.024906600249066, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.1656288916562889, 0.062266500622665005, 0.12826899128268993, 0.021170610211706103, 0.0547945205479452, 0.0, 0.0323785803237858, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.0647571606475716, 0.038605230386052306, 0.062266500622665005, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.039850560398505604, 0.12079701120797011, 0.062266500622665005, 0.20423412204234123, 0.0323785803237858, 0.039850560398505604, 0.0, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052303860523038606, 0.0136986301369863, 0.0722291407222914, 0.017434620174346202, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0037359900373599006, 0.05105853051058531, 0.043586550435865505, 0.049813200498132, 0.007471980074719801, 0.029887920298879204, 0.0, 0.034869240348692404, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1320049813200498, 0.08094645080946451, 0.23661270236612703, 0.034869240348692404, 0.052303860523038606, 0.0, 0.10336239103362391, 0.0, 0.0037359900373599006, 0.007471980074719801, 0.0224159402241594, 0.0062266500622665, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06724782067247821, 0.024906600249066, 0.031133250311332503, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0161892901618929, 0.0273972602739726, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024906600249066, 0.0448318804483188, 0.033623910336239106, 0.09713574097135741, 0.0062266500622665, 0.0062266500622665, 0.0, 0.026151930261519303, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0273972602739726, 0.0112079701120797, 0.014943960149439602, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.012453300124533, 0.0224159402241594, 0.08841843088418432, 0.0049813200498132005, 0.024906600249066, 0.0, 0.028642590286425903, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0062266500622665, 0.009962640099626401, 0.009962640099626401, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0062266500622665, 0.0012453300124533001, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009962640099626401, 0.007471980074719801, 0.0049813200498132005, 0.039850560398505604, 0.0, 0.008717310087173101, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0112079701120797, 0.024906600249066, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.05603985056039851, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0024906600249066002, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0024906600249066002, 0.021170610211706103, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0</t>
         </is>
       </c>
     </row>
@@ -605,69 +605,69 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.590809757418174</v>
+        <v>5.032195795070737</v>
       </c>
       <c r="C3" t="n">
         <v>2.57530272087187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5906991495010002</v>
+        <v>0.5913263771405545</v>
       </c>
       <c r="E3" t="n">
         <v>2.846561820213446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.382981190106598</v>
+        <v>1.384184357131292</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02093743096043811</v>
+        <v>0.02093949002023239</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4295189899033051</v>
+        <v>0.4294925781998982</v>
       </c>
       <c r="I3" t="n">
-        <v>15.22384905978332</v>
+        <v>105.6954465715101</v>
       </c>
       <c r="J3" t="n">
-        <v>81.5531434743672</v>
+        <v>81.54435932815957</v>
       </c>
       <c r="K3" t="n">
-        <v>1.539005082169607</v>
+        <v>1.542095687964101</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8673466694570817</v>
+        <v>0.8673732097594604</v>
       </c>
       <c r="M3" t="n">
-        <v>1.743405014990587</v>
+        <v>1.770096261819055</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[43.96518638746081, 25.800607565347597, 38.07611878564085, 24.63620289428403, 9.277308741289549, 12.653983014070555, 0.8917675963837053, 10.195149838372064, 4.666612977517225, 5.338710445776931, 2.886325739584823, 0.6695730800773179, 3.6247079443894394, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[44.31909401412168, 26.16964957441461, 38.629479629527744, 24.973930661050826, 9.152159616948792, 12.128129803532726, 0.8339509360070744, 10.109721120688956, 4.695204643369049, 5.305332697048505, 2.8578926485945755, 0.6611846292908672, 3.7038053281541234, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[26.811276561682035, 4.202277140987607, 24.36955414520669, 3.7431446643987547, 22.738045383573084, 16.48883123885517, 5.317180291040652, 25.73264582035267, 4.525173197895207, 27.38603245536218, 3.265125152597835, 20.031100926674434]</t>
+          <t>[32.9334845118805, 31.647367285055548, 33.01332413646799, 33.830898018250146, 32.8732331454671, 32.68636911350421, 31.84374882124133, 33.801749246652605, 30.682435084683146, 33.00159261078117, 31.110667974394786, 33.098500037317635]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[21.682888198281276, 72.77347495650994, 85.86715596282875, 32.414751565248764, 39.18357444052118, 5.031014264403113, 10.13745963811475, 4.112617473526721, 10.600563905098909, 2.530106678819317, 4.387809627990111, 1.7008126274108673, 5.283717019416239, 1.3777391600385327, 2.9671215210227353, 1.0737027088168662, 5.612673215326598, 0.9334294661166349, 1.957030468379365, 0.7754917069724199, 1.5660439598479532, 0.4384481393377636, 0.7976375185476675, 0.33519509521814744, 1.330485781046696, 0.15621819955732857, 0.3359576332150764, 0.131191837510562, 0.416990344842046, 0.1448549541578633, 0.21511431381812385, 0.13166383701150328]</t>
+          <t>[19.200192814527096, 79.9311001297264, 86.71882793720533, 32.26698726378019, 39.236255489009736, 5.076896598584383, 10.126639427099418, 4.112470026799988, 10.600443939631395, 2.530406397086378, 4.3926795103390734, 1.7009083665490732, 5.2858378220952815, 1.3786427576165583, 2.9682084905495536, 1.07361026379461, 5.608395939485978, 0.923637016457183, 1.9571556713165779, 0.7749415602618336, 1.5660439598479532, 0.42653961853269734, 0.7976375185476675, 0.33519509521814744, 1.330113894853949, 0.15621819955732857, 0.3359576332150764, 0.12160952045562655, 0.418175068572185, 0.1448549541578633, 0.21511431381812385, 0.13166383701150328]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[10.239139713482235, 91.78844013187569, 68.24105539540207, 60.484269750223184, 16.852629823817313, 17.00425485442499, 0.0, 25.59437640424412, 0.0, 5.5202264198940165, 3.913505786863658, 6.218709756636351, 2.8897662234853323, 2.965137297495919, 0.0, 6.031495164290983, 0.0, 2.251255641720904, 1.384644578668003, 2.500296426799668, 1.627935480132149, 1.7065783665944962, 0.0, 2.9648700186569394, 0.0, 1.3113200852338929, 0.9461394257385434, 1.5852126572138443, 1.0614201274036805, 1.0133252683535194, 0.0, 2.0853258364601444, 0.14536794364889696, 0.8594184734990764, 0.5433521981379187, 1.1660013667634472, 0.31917397641484585, 0.5383456641009708, 0.03526725344584421, 1.1042531592621454, 0.08629696706884245, 0.3293562403611494, 0.3124363991146585, 0.47401127641350865, 0.2807273285898941, 0.24802397213202168, 0.03526725344584419, 0.6661130429448666, 0.0, 0.21305700411948367, 0.17545458036868317, 0.3043602855858842, 0.11114875584899048, 0.13145164696706488, 0.03526725344584421, 0.30805246003646064, 0.0, 0.1216095204556271, 0.11671605991392227, 0.1853827553268103, 0.06100846183768915, 0.1408049217942977, 0.0, 0.7860548292405346]</t>
+          <t>[12.82798711365942, 94.103421431507, 57.92075920232701, 60.494370750456966, 16.839890816418453, 17.003801749609853, 0.10568443093039571, 25.597638598346183, 0.035267253445844, 5.519699915116759, 3.914771302825827, 6.208024446702059, 2.8881138850900765, 2.9646053313264136, 0.07882063461243541, 6.030671280240247, 0.03526725344584406, 2.251255641720904, 1.3847677767551712, 2.498710526015691, 1.627726837204949, 1.7065783665944962, 0.0, 2.96494167894833, 0.0, 1.3113200852338929, 0.9432156150600347, 1.5852126572138443, 1.0599463097857305, 1.0133252683535194, 0.0, 2.0911119385789925, 0.0, 0.8565154946302311, 0.5433521981379187, 1.1784020375726163, 0.32863501628982855, 0.5383456641009708, 0.0, 1.1045747270298638, 0.0, 0.33105640935787717, 0.30877655679214755, 0.4864667744977927, 0.2807273285898941, 0.24802397213202168, 0.0, 0.6647076535532884, 0.0, 0.21305700411948367, 0.1919828794384192, 0.3080524600364604, 0.12183885238988879, 0.13145164696706488, 0.0, 0.3174199387179689, 0.0, 0.1216095204556271, 0.12183885238988881, 0.19806620525101934, 0.06100846183768915, 0.1408049217942977, 0.0, 0.7752876981015855]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[[15.38889614094686, 0.631688048182767, 9.891625637727504, 0.7945595855445606, 5.233482449413023, 1.9447342379681531, 0.20539263798739288, 5.374531838009012, 0.41022236725876743, 8.889003375111665, 0.9700553268017363, 8.386447493574272], [0.6422378289478653, 1.5102120706540463, 1.0720331388163606, 1.1122086891902483, 0.5786859768794762, 0.435210324156881, 0.2191073133796967, 0.07053450689168798, 0.4513561150412919, 0.2842464048426837, 0.5777042841715191, 0.6113238651450054], [10.848355012658786, 0.9655717467595065, 13.351684682449697, 0.3629875308042183, 10.585615994262561, 2.367716579527088, 0.6022249069870991, 4.501332109504329, 0.16522108242054842, 3.7253509784856966, 0.375961810139954, 3.5346300705443294], [0.5001949809725345, 1.2354489689036974, 1.0679951929332134, 1.0932224401431487, 0.6899038352881035, 1.2212554664837807, 0.09953295742310293, 0.061008461837688, 0.33235149364226535, 0.0, 0.3579841864799223, 0.0], [5.709959651100379, 0.3149331021027293, 10.444687865900816, 0.6337127024105634, 13.293003373418633, 6.766720617459143, 1.5957241072502508, 9.437619601564657, 0.685357051095766, 5.699794793421793, 0.04984432402537817, 2.622091358442047], [1.4283745239176138, 0.6518800062938273, 2.1999945156347964, 1.3577181547725181, 7.647346202680266, 6.232090773697233, 0.6981649257013408, 4.194088080163874, 0.9549253548852652, 1.812553769134634, 0.3591692384349887, 0.48723765511381373], [0.04984432402537831, 0.1611343470334298, 0.6437645540343204, 0.18285583903340266, 1.9723071089338597, 0.8112099201198917, 1.5491334734999171, 1.5831735030172573, 0.46849573270176675, 0.7962383394682092, 0.23360479148124938, 0.43406495203080153], [5.191744229578108, 0.0705345068916885, 4.391660482390778, 0.29859887226931253, 9.147709586915433, 4.780766933528221, 1.883350749285682, 14.651512150992408, 0.5763308723985958, 10.687194197366386, 0.32847452922060666, 2.357144909832109], [0.25090232148369807, 0.4078755229375376, 0.298401444635697, 0.3954741484748913, 0.6387001287501293, 0.9661947294867658, 0.3998537283987726, 0.5302912917395295, 1.8057345299852554, 1.640463161957812, 1.1901172689340662, 0.3492612332345292], [9.099981484403692, 0.2825170498627745, 3.9760401591664585, 0.1930301690820467, 6.155270066150008, 1.7719326335665508, 1.06578133435243, 10.590256259116895, 1.1000557656289465, 15.575731134902835, 0.4151340798331694, 6.932336423044284], [1.0442610100838234, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.7220637765585423, 0.12201692367537688, 0.2939770246145319, 0.9998860062599834, 0.6012120033560843, 0.7992302545651963, 0.433868401049346], [8.406039573591837, 0.8809457818448249, 2.8641204146436636, 0.0, 2.4909426987785817, 0.5309430588918022, 0.4120969938719054, 3.3938804981733774, 0.773348935051679, 7.256443839536551, 0.4091889883963065, 7.086691998962943]]</t>
+          <t>[[11.997590776060392, 3.7471899370295105, 9.535696422227993, 5.96163969422672, 2.825031613595803, 3.354780834787427, 0.2536930110518476, 4.155734357899146, 2.35167441622695, 6.649530764530581, 9.177753871632449, 4.828010993805787], [4.109916210230541, 11.286487530248806, 4.13593239751184, 8.800676798781469, 5.323908004394504, 2.21161494432541, 2.9100764507086976, 0.22009600607836, 3.2809518488422014, 2.732914662142555, 5.241480257962126, 8.523666341982336], [10.390480046243162, 4.654978621048339, 11.901492988048744, 3.9326472831270105, 9.503547817936589, 5.6434421092121445, 2.719597746268516, 4.0730349075811025, 0.1759136090349544, 3.680019933047869, 1.900857469707438, 6.299120484135102], [5.991842945740374, 9.820052162358055, 4.322796814888, 13.176177930249414, 4.425956475496443, 8.927600187157102, 5.488149442956291, 2.195835008506002, 3.050483591342437, 0.288250186982405, 3.0948863698903106, 2.41382159226022], [2.9110552657514206, 5.295501394300301, 10.326542586797165, 4.995005795068068, 11.50747654536291, 3.989212496146608, 8.139478866734196, 6.055186907170964, 2.246036831466679, 3.7707198541025755, 0.2796313603096256, 3.897767555257129], [3.4951841320925556, 2.5137571633593283, 5.906878689156752, 9.98430210369429, 4.339771226123096, 11.89104547596133, 2.9180763541012356, 9.288021047470993, 5.5172619985159, 2.44114161942571, 3.6113166116899946, 0.22803485378865546], [0.2608542810616591, 3.2733209778195937, 2.946679760229277, 6.125528829789802, 9.532147696483332, 3.3209507568226506, 11.716011015117244, 4.189891312560363, 7.672661234297638, 5.605076412341876, 1.4131768818773534, 3.9738182144881278], [3.7538564077068273, 0.23065179382894777, 3.4450271605950467, 2.286504582491696, 6.293322254932407, 10.334105167650279, 4.724643877579283, 13.234196865053613, 3.4488748631383483, 9.883830410375344, 5.525981826087712, 2.5529180208223328], [2.05909358190352, 2.828374486769145, 0.186317352022567, 3.1836836803303847, 2.1102366015316294, 5.8386014373397215, 9.135822963137295, 3.9014279313405766, 10.688737213666343, 3.2436383885688, 8.08251970467646, 5.114426480599669], [6.539329043581681, 2.069676288191982, 3.657596364143476, 0.19600402526076519, 4.10396875958609, 2.6637285842323375, 6.001264582333904, 10.639960721058248, 4.1111593663820996, 11.504160085338109, 3.6606801398387883, 9.028898179918144], [8.95871715234031, 4.868961654332907, 2.227723796040667, 2.8762049872580566, 0.1269381686756833, 3.418900629405698, 2.3495248970648266, 5.148983161039355, 8.970131875637394, 4.561808210776914, 11.45072488468592, 3.3339542862655613], [4.400458138601073, 8.136760827568724, 5.9301548206012775, 2.03477244679101, 3.5939287776404627, 0.2585552240459651, 3.7946478580178638, 2.6182428992952764, 5.710316527364313, 10.182210081580614, 3.720296636491089, 12.277513878157253]]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[[0.5981448522516661, 3.45295632807422, 2.5270694923376387, 6.300793440821469, 0.6876973477766123, 0.7447323369277237, 0.0, 1.8497942697753542, 0.0, 0.1793188734596477, 0.30855548528992865, 0.2717103475530585, 0.10550819217920393, 0.15732614393378672, 0.0, 0.24611577737616433, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.08629696706884259, 0.07053450689168851, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.03526725344584417, 0.0, 0.0, 0.15732614393378422, 0.0, 0.04984432402537798, 0.0, 0.07053450689168823, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0788206346124355], [2.738302585049167, 70.71128224090144, 22.655213696129486, 17.54046955616787, 5.3896337763833975, 7.711873795015497, 0.0, 4.532084945639117, 0.0, 3.0507799705099856, 1.820238860923577, 1.7725294392443114, 1.3220584356286411, 1.754252323622065, 0.0, 1.761336939708725, 0.0, 1.068417673472907, 0.703092194246869, 0.783972582067646, 0.42439999056073824, 0.8407720865311248, 0.0, 0.974214274417964, 0.0, 0.5000709462095569, 0.314933102102731, 0.5124831841471554, 0.475764962637261, 0.3925852250797812, 0.0, 0.5837423826999588, 0.0, 0.3324028188158522, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.33344626754696427, 0.0, 0.10550819217920393, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07053450689168847, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0], [2.509193188726742, 22.259469178774047, 38.1841669335804, 15.81004154788268, 5.343967776035741, 4.87818608580641, 0.0, 5.57516457849677, 0.0, 1.9137104253621324, 1.6428843619202245, 1.629779711534943, 0.9599612487248417, 1.050482924194363, 0.0, 1.787737922503338, 0.0, 0.7401598788104239, 0.6342215239818803, 0.9719687063300225, 0.8611400757459441, 0.5606696452134722, 0.0, 0.9126561387276729, 0.0, 0.4693423964887469, 0.5507710446105903, 0.42804947231461904, 0.2951510946817137, 0.4123866665783569, 0.0, 0.41756270010404206, 0.1410690137833764, 0.38843517999213123, 0.10568443093039488, 0.32920081587595895, 0.07053450689168786, 0.17608983990366775, 0.0, 0.09315867601128378, 0.03526725344584425, 0.24403384735075295, 0.04984432402537791, 0.17591360903495498, 0.07882063461243584, 0.0, 0.0, 0.12201692367537861, 0.0, 0.0, 0.0, 0.0705345068916883, 0.07882063461243524, 0.0, 0.0, 0.0788206346124356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884227], [7.79025224872956, 16.69416259475453, 14.748738552296453, 42.25260630469924, 5.733545089744422, 4.985908223211347, 0.0, 10.172364455479032, 0.0, 2.673041621445877, 1.8501480360303018, 3.8478162309141517, 1.5873019523659646, 1.4814235619636973, 0.0, 3.502454296199748, 0.0, 1.3074814632420106, 0.6262363335760979, 1.4621468413816456, 0.719412823630801, 0.7852613028241368, 0.0, 1.5853574421106427, 0.0, 0.7371175564715419, 0.434382818857992, 1.0823329281260705, 0.5959941794248123, 0.517934533785683, 0.0, 1.2644669100253705, 0.0, 0.4525810946436798, 0.30426855400399416, 0.8433578596399137, 0.09315867601128319, 0.10550819217920296, 0.0, 0.7428119504872601, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.15710912864667462, 0.0, 0.0, 0.0, 0.09315867601128383, 0.0, 0.03526725344584421, 0.0705345068916884, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.27078411805582514], [1.1545921920934599, 4.523467181433315, 4.87089657888184, 5.818178619559349, 6.038142290935837, 2.3782269106892384, 0.0, 2.375690837502433, 0.0, 0.9913609110736527, 0.615520657333571, 0.8830224067293442, 0.5810795777519577, 0.4770215439931948, 0.0, 0.9572676110035493, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40906389761668716, 0.268968220034349, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.18591738586821036, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.2606639632754011, 0.0, 0.21026540778822927, 0.03526725344584391, 0.14080492179429777, 0.06100846183768839, 0.10568443093039702, 0.0, 0.04984432402537786, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0498443240253783, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.07040246089714881], [1.3189214849254736, 7.081632816464265, 4.957942341338154, 5.435274475407721, 2.437572460004789, 5.480219294185036, 0.0, 2.7969114023594153, 0.0, 1.0710764824222736, 0.7219477861724435, 1.1754055090594748, 0.7391954187546981, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4210652116157133, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.3364650317941747, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.1269381686756845, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.049844324025378244, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025377945], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04984432402537853, 4.485143132576206, 4.33210164671944, 9.218316336798773, 2.0339087224555223, 2.35725215070793, 0.0, 12.58961003710107, 0.0, 1.0896658957459893, 0.827813864855967, 2.512868607277693, 0.7401934026317223, 0.6207892044261079, 0.0, 2.933938836583808, 0.0, 0.5861761886654182, 0.5171074490201772, 1.1419112610370283, 0.6723905666797703, 0.6022249069870969, 0.0, 1.466332595008721, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 0.9299672281111608, 0.0, 0.15357499386767587, 0.17931887345964814, 0.43949741058584024, 0.22836106463021436, 0.11687539931905394, 0.0, 0.6242296655109074, 0.0, 0.12183885238988838, 0.19270853231927834, 0.21882400926150114, 0.07040246089714887, 0.15357499386767554, 0.0, 0.5121986478190869, 0.0, 0.10568443093039617, 0.08629696706884352, 0.13621428556787427, 0.03526725344584419, 0.08629696706884217, 0.0, 0.13598638799221782, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 0.3320947487899453], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.2884381535021165, 2.0820778210694506, 2.5613299108819803, 0.6104835849454087, 0.923069317931281, 0.0, 1.247240129131313, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.09295869293410511, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.3230857457411664, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.11114875584899048], [0.10580176033753269, 1.8042378009538727, 1.8926304125042663, 1.9291588864507037, 0.5562096106810701, 0.5663281144968402, 0.0, 0.7128423894381034, 0.0, 0.11671605991392124, 0.18983829662633858, 0.48156768273402656, 0.11114875584898949, 0.16868591470183852, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.0, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.11148312237775918, 0.0, 0.035267253445844166, 0.035267253445844006, 0.04984432402537845, 0.0, 0.0, 0.0, 0.0, 0.03526725344584425, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.06100846183768812], [0.8968019082899605, 2.2472986771569854, 1.8740706508790705, 4.05926583446298, 0.6102523685844544, 0.7421163856103026, 0.0, 1.2032749518486976, 0.0, 0.4192306890890823, 0.18285583903340205, 1.0009478935914595, 0.3089372367037806, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.07882063461243553, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.1492007223178497, 0.0, 0.09315867601128343, 0.0, 0.11134392501747215, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.04984432402537779, 0.0, 0.0, 0.0, 0.08629696706884395, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901762], [0.09953295742310325, 1.4383308262770131, 1.1039062104189568, 1.2881011251535857, 0.42219075155551855, 1.1016406369062917, 0.0, 0.6506965505108849, 0.0, 0.3998537283987718, 0.17931887345964864, 0.1493877037322834, 0.22554573381679363, 0.07882063461243645, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.06100846183768841, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11148312237775973, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.03526725344584406], [0.3784738003113154, 1.7624926493418738, 1.1515444811923943, 1.3825126356947457, 0.3310564093578771, 0.8450754776983171, 0.0, 0.4883662906232824, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.07040246089714865, 0.2821380275667512, 0.0, 0.035267253445844186, 0.0, 0.03526725344584407, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.035267253445844, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.8682382573058716, 1.7424165162679763, 3.5596999807416085, 0.8502658807553721, 0.8769334177246595, 0.0, 2.7806364784728186, 0.0, 0.2503825725900313, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5202797428561505, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14506892023336015, 0.0, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.30518462906583993, 0.0, 0.04984432402537824, 0.03526725344584396, 0.0, 0.035267253445843985, 0.10580176033753151, 0.0, 0.07882063461243655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.22568321141935258, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12693816867568397, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.373934851779479, 0.7284382240640416, 1.067396755818729, 0.3837435482682072, 0.4637077898358893, 0.0, 0.368238841371977, 0.0, 0.3242978994722724, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.035267253445844256, 0.6888915297703234, 0.6899060832018447, 0.7544644595577332, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.03526725344584415], [0.5408661936315918, 1.0144571714995214, 1.022612352827793, 1.457963962535131, 0.34540794344486314, 0.4477060985422264, 0.0, 0.7072180787806787, 0.0, 0.17591360903495365, 0.17950904055170688, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.994370866289755, 0.5271939544122967, 0.7078121007311813, 0.2601398714280752, 0.2711160947356388, 0.0, 0.21936197425475198, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.2565440277854765, 0.8692546216985796, 0.6937997157399078, 0.7124550306544375, 0.2738537045298144, 0.31206886765491826, 0.0, 0.3648753181834923, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.03526725344584395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.0778458955511716, 0.8752127586281268, 1.7615922645009436, 0.4068018738819371, 0.5464005171597189, 0.0, 1.0462328651317343, 0.0, 0.21026540778823294, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.29676504232339324, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.035267253445843846, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6685926212108927, 0.42858896755180403, 0.602804047492698, 0.21936197425475323, 0.3954741484748924, 0.0, 0.2714248114734818, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.03526725344584424, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168825, 0.352470195409574, 0.3398131162956131, 0.4850012838037022, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3972583220398915, 0.6190830972029179, 0.4273242469283259, 1.0108413594767087, 0.2848568208032502, 0.36113282065740643, 0.0, 0.22150076890975764, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.392652375191469, 0.12649757979606965, 0.5688146222788149, 0.18591738586820974, 0.16505203903612162, 0.0, 0.3448642377219643, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537851], [0.07882063461243573, 0.36451811415950947, 0.29869753715158565, 0.2994546142200476, 0.11134392501747144, 0.226738996961806, 0.0, 0.3581877403997085, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5849313875394228, 0.5362327985890728, 1.1857621446559805, 0.3215460419964512, 0.5062538382715561, 0.0, 0.6177338990557453, 0.0, 0.06100846183768857, 0.12201692367537662, 0.22759917870437524, 0.07866307196689262, 0.09315867601128285, 0.0, 0.1793188734596478, 0.0, 0.035267253445844256, 0.035267253445844, 0.049844324025377924, 0.07053450689168832, 0.0705345068916878, 0.0, 0.1453679436488957, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416], [0.0, 0.0, 0.0, 0.14536794364889696, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168826, 0.4633096295206717, 0.3484566005752484, 0.2598535576242571, 0.08629696706884268, 0.10568443093039691, 0.0, 0.12674254048211195, 0.0, 0.07882063461243574, 0.04984432402537813, 0.07053450689168844, 0.03526725344584396, 0.10580176033753227, 0.0, 0.1318286375872456, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.2081452793601598, 0.2981830830649509, 0.10580176033753366, 0.10568443093039637, 0.0, 0.08629696706884259, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4648301662229989, 0.3741092406171576, 0.2825170498627747, 0.6676989898681324, 0.11687539931905319, 0.09315867601128223, 0.0, 0.2604020492018654, 0.0, 0.0, 0.07882063461243612, 0.03526725344584425, 0.0, 0.0, 0.0, 0.07053450689168854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.03526725344584395, 0.09315867601128307, 0.03526725344584416, 0.09968864805075678, 0.0, 0.07882063461243591, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.33366014333491806, 0.15341333593459064, 0.23887624123781437, 0.035267253445843944, 0.03526725344584383, 0.0, 0.08611706908901763, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.1650520390361216, 0.22759917870437557, 0.7081822902144591, 0.08629696706884368, 0.3921741740709671, 0.0, 0.28306545679603595, 0.0, 0.07882063461243524, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.1410690137833769, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.04984432402537795, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.12708469219734675, 0.11114875584899023, 0.2173091951010616, 0.035267253445844166, 0.0, 0.08629696706884256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11134392501747085, 0.04984432402537791, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.10580176033753151, 0.0, 0.0, 0.07053450689168789, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14080492179429754, 0.12201692367537707, 0.11148312237776047, 0.3248235119367309, 0.0, 0.09953295742310306, 0.0, 0.07040246089714884, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.049844324025378604, 0.04984432402537786, 0.03526725344584419, 0.0, 0.0, 0.07882063461243627, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.03526725344584395, 0.11687539931905308, 0.0, 0.0, 0.0, 0.15764126922487198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.15341333593459072, 0.20102727913036317, 0.07882063461243535, 0.07053450689168839, 0.0, 0.5216104560889827, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075558, 0.0, 0.0, 0.0, 0.03526725344584417, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07882063461243621, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.07866307196689305, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.03526725344584415, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.12693816867568397, 0.10550819217920085, 0.06100846183768903, 0.0, 0.0, 0.15764126922487065, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.0, 0.035267253445844075, 0.06100846183768882, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584388, 0.03526725344584415, 0.18566696948481257, 0.0, 0.0, 0.0, 0.1863173520225676, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168766, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0705345068916884, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0,</t>
+          <t>[[0.6032309680582033, 6.975327409365649, 3.720221183872154, 6.527619373807764, 0.9158451897975939, 0.8431224481801997, 0.0, 1.8615047065037715, 0.0, 0.23019412422188812, 0.33910955925753683, 0.31341767474144994, 0.16846512152513995, 0.15732614393378672, 0.0, 0.26514125905531577, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.13639632946543412, 0.07882063461243609, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.049844324025378015, 0.0, 0.0, 0.15732614393378422, 0.0, 0.035267253445844214, 0.0, 0.0788206346124355, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0], [8.405709879967649, 72.05959475702427, 20.568194935471578, 17.376902773029723, 5.627775983506235, 7.722590533674874, 0.0, 4.551357670791479, 0.0, 3.0669472177602466, 1.8510162370652141, 1.7907672375179229, 1.313659666513322, 1.7609010411749433, 0.0, 1.774010084635276, 0.0, 1.0706912630068763, 0.7171327786948001, 0.8439313999635857, 0.42439999056073824, 0.8412644374406971, 0.0, 0.9848269417596358, 0.0, 0.5000709462095569, 0.347748232474827, 0.5124831841471554, 0.47690448987316164, 0.3925852250797812, 0.0, 0.5875556214174019, 0.0, 0.37530536019169786, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.33344626754696427, 0.0, 0.11114875584899017, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07882063461243506, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.0352672534458441, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0], [2.5072770707759893, 20.358320931630743, 29.010247762871934, 15.594055632661258, 4.656996792399891, 4.6978199259931985, 0.0, 5.479208643976557, 0.0, 1.8172706224216741, 1.6219274847410945, 1.589618761554814, 0.9435181016441375, 1.0408560324790945, 0.0, 1.7756510809048176, 0.0, 0.7359405174955117, 0.6216879008447389, 0.9159772616077364, 0.855187260823239, 0.5588715879927961, 0.0, 0.8947832630765055, 0.0, 0.4693423964887469, 0.5307502425835738, 0.42804947231461904, 0.29119959394370315, 0.4123866665783569, 0.0, 0.41191631560504277, 0.0, 0.3358052641398605, 0.10568443093039488, 0.32920081587595895, 0.07053450689168786, 0.17608983990366775, 0.0, 0.08629696706884234, 0.0, 0.24403384735075295, 0.04984432402537791, 0.17591360903495498, 0.07882063461243584, 0.0, 0.0, 0.11687539931905186, 0.0, 0.0, 0.0, 0.0705345068916883, 0.07053450689168836, 0.0, 0.0, 0.0788206346124356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884227], [7.785913986188617, 16.74559913410358, 14.604572346834846, 42.254639373165254, 5.742124995183023, 4.985908223211347, 0.07053450689168837, 10.17291846865618, 0.0, 2.6722414326549044, 1.8514937416250146, 3.848215225741559, 1.5873019523659646, 1.481443452218515, 0.035267253445844166, 3.502454296199748, 0.0, 1.3064455588117678, 0.6255549374186772, 1.4612885120931256, 0.7200010924846098, 0.7852613028241368, 0.0, 1.5853368991127177, 0.0, 0.7371175564715419, 0.43316007904758697, 1.0823329281260705, 0.592994194049528, 0.517934533785683, 0.0, 1.2644669100253705, 0.0, 0.4525810946436798, 0.30426855400399416, 0.853867858493989, 0.09315867601128319, 0.10550819217920296, 0.0, 0.7428119504872601, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.16460040793797942, 0.0, 0.0, 0.0, 0.09953295742310303, 0.0, 0.03526725344584421, 0.07882063461243571, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.27706843662872715], [1.1545921920934599, 4.910198060166919, 4.338809114918467, 5.819322548060996, 6.02297574618445, 2.3795776827057114, 0.0, 2.375690837502433, 0.0, 0.9913609110736527, 0.615520657333571, 0.8826816199582865, 0.5819116806771465, 0.4770215439931948, 0.07053450689168829, 0.9500276516048531, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40774242228737384, 0.27111609473563836, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.18591738586821036, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.2606639632754011, 0.0, 0.21026540778822927, 0.03526725344584391, 0.14080492179429777, 0.06100846183768839, 0.10568443093039702, 0.0, 0.04984432402537786, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0498443240253783, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.07040246089714881], [1.3201308746463474, 7.132672627004393, 4.846518825823255, 5.433236266421455, 2.4377925842423576, 5.4799750684389394, 0.03526725344584389, 2.7970588916157735, 0.0, 1.0710764824222736, 0.7219477861724435, 1.1754055090594748, 0.7391954187546981, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4197815182120356, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.3364650317941747, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.1269381686756845, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.049844324025378244, 0.0, 0.0498443240253781, 0.0, 0.07053450689168841, 0.0, 0.0, 0.0, 0.049844324025377945], [0.0, 0.03526725344584389, 0.0, 0.0, 0.07053450689168837, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.03526725344584393, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04984432402537853, 4.599085172365692, 4.066496587754081, 9.22093505304629, 2.0339087224555223, 2.3572560981317405, 0.0, 12.590044871443677, 0.0, 1.0896658957459893, 0.827813864855967, 2.510996057446287, 0.7407881980057558, 0.6207892044261079, 0.0, 2.933938836583808, 0.0, 0.5853501479714571, 0.5171074490201772, 1.1419112610370283, 0.6723905666797703, 0.6022249069870969, 0.0, 1.466332595008721, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 0.9299672281111608, 0.0, 0.15357499386767587, 0.17931887345964814, 0.43949741058584024, 0.22836106463021436, 0.11687539931905394, 0.0, 0.6242296655109074, 0.0, 0.12674254048211195, 0.1863173520225677, 0.21882400926150114, 0.07040246089714887, 0.15357499386767554, 0.0, 0.5121986478190869, 0.0, 0.10568443093039617, 0.09315867601128312, 0.13621428556787427, 0.03526725344584419, 0.08629696706884217, 0.0, 0.13598638799221782, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 0.3303717586290905], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.3255059105720943, 1.8871216729886218, 2.561189434509863, 0.6104835849454087, 0.923069317931281, 0.0, 1.247240129131313, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.08611706908901777, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.3230857457411664, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.03526725344584386, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.10550819217920301], [0.1270846921973476, 1.9206646903364448, 1.6945075106891834, 1.9291588864507037, 0.5562096106810701, 0.5663281144968402, 0.0, 0.7128423894381034, 0.0, 0.11671605991392124, 0.18983829662633858, 0.48156768273402656, 0.11114875584898949, 0.16868591470183852, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.0, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.11148312237775918, 0.0, 0.035267253445844166, 0.035267253445844006, 0.04984432402537845, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.04984432402537849], [0.8879281585710084, 2.2856342079966128, 1.801269885163065, 4.059307859862757, 0.6102523685844544, 0.7421163856103026, 0.0, 1.2030609829080134, 0.0, 0.4192306890890823, 0.18285583903340205, 0.9950038730376165, 0.3108589175095745, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.07882063461243553, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.1492007223178497, 0.0, 0.09315867601128343, 0.0, 0.10568443093039416, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.03526725344584425, 0.03526725344584419, 0.0, 0.0, 0.08629696706884395, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901762], [0.09953295742310325, 1.4834708573047934, 0.9823909550073742, 1.2881011251535857, 0.42219075155551855, 1.1016406369062917, 0.0, 0.6506965505108849, 0.035267253445844, 0.3998537283987718, 0.17931887345964864, 0.15341333593459056, 0.22554573381679363, 0.07882063461243645, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.06100846183768841, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11148312237775973, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.03526725344584406], [0.3784738003113154, 1.7953340195064404, 1.0414637638293092, 1.3825126356947457, 0.3310564093578771, 0.8450754776983171, 0.0, 0.4883662906232824, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.0610084618376882, 0.2821380275667512, 0.0, 0.035267253445844186, 0.0, 0.03526725344584407, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.035267253445844, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.07053450689168829, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.9082609148330942, 1.645042765943019, 3.5596999807416085, 0.8502658807553721, 0.8769334177246595, 0.0, 2.7806364784728186, 0.0, 0.2503825725900313, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5202797428561505, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14506892023336015, 0.0, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.30518462906583993, 0.0, 0.04984432402537824, 0.03526725344584396, 0.0, 0.035267253445843985, 0.10580176033753151, 0.0, 0.07882063461243655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.22568321141935258, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12693816867568397, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.03526725344584406, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.3847319384421342, 0.6826703307425074, 1.067396755818729, 0.3837435482682072, 0.4637077898358893, 0.03526725344584393, 0.3667533886955593, 0.0, 0.3242978994722724, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.035267253445844256, 0.7222248434137256, 0.6512016276906024, 0.7544644595577332, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.03526725344584415], [0.5375182489648086, 1.081490069960067, 0.9991008800479312, 1.457963962535131, 0.34540794344486314, 0.4477060985422264, 0.0, 0.7065160075870341, 0.0, 0.17591360903495365, 0.17950904055170688, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.9967806879392012, 0.5242824562264862, 0.7048611874942385, 0.2601398714280752, 0.2711160947356388, 0.0, 0.2220601858100623, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.2565440277854765, 0.9070175438570212, 0.6509205481874648, 0.7124550306544375, 0.2738537045298144, 0.31206886765491826, 0.0, 0.3648753181834923, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.03526725344584395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.085254912820109, 0.8651844557832804, 1.7615922645009436, 0.4068018738819371, 0.5464005171597189, 0.0, 1.0462328651317343, 0.0, 0.21026540778823294, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.29676504232339324, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.035267253445843846, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6723236758014889, 0.421830611405086, 0.602804047492698, 0.21936197425475323, 0.3954741484748924, 0.0, 0.2714248114734818, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.03526725344584424, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168825, 0.3540068240020386, 0.3381202853201767, 0.4850012838037022, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3972583220398915, 0.6226151910334707, 0.41886800390275897, 1.0108413594767087, 0.2848568208032502, 0.36113282065740643, 0.0, 0.22150076890975764, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.392652375191469, 0.12649757979606965, 0.5688146222788149, 0.18591738586820974, 0.16505203903612162, 0.0, 0.3448642377219643, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07882063461243573, 0.3579841864799267, 0.30657890269881094, 0.2994546142200476, 0.11134392501747144, 0.226738996961806, 0.0, 0.3581877403997085, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5841487212116812, 0.5372065571572824, 1.1857621446559805, 0.3215460419964512, 0.5062538382715561, 0.0, 0.6177338990557453, 0.0, 0.06100846183768857, 0.12201692367537662, 0.22759917870437524, 0.07866307196689262, 0.09315867601128285, 0.0, 0.1793188734596478, 0.0, 0.04984432402537853, 0.035267253445844, 0.049844324025377924, 0.07053450689168832, 0.0705345068916878, 0.0, 0.1453679436488957, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168826, 0.4633096295206717, 0.3484566005752484, 0.2598535576242571, 0.08629696706884268, 0.10568443093039691, 0.0, 0.12674254048211195, 0.0, 0.07882063461243574, 0.04984432402537813, 0.07053450689168844, 0.03526725344584396, 0.10580176033753227, 0.0, 0.1318286375872456, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.2081452793601598, 0.2981830830649509, 0.10580176033753366, 0.10568443093039637, 0.0, 0.08629696706884259, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4648301662229989, 0.3741092406171576, 0.2825170498627747, 0.6810213304722661, 0.11687539931905319, 0.09315867601128223, 0.0, 0.2604020492018654, 0.0, 0.0, 0.07882063461243612, 0.03526725344584425, 0.0, 0.0, 0.0, 0.07053450689168854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.03526725344584395, 0.09315867601128307, 0.03526725344584416, 0.09968864805075678, 0.0, 0.07882063461243591, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.0, 0.33366014333491806, 0.15341333593459064, 0.23887624123781437, 0.035267253445843944, 0.03526725344584383, 0.0, 0.08611706908901763, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.1650520390361216, 0.22759917870437557, 0.7081822902144591, 0.08629696706884368, 0.3921741740709671, 0.0, 0.28306545679603595, 0.0, 0.07882063461243524, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.1410690137833769, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.12708469219734675, 0.11114875584899023, 0.2173091951010616, 0.035267253445844166, 0.0, 0.08629696706884256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.10568443093039584, 0.035267253445844256, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.10580176033753151, 0.0, 0.0, 0.07053450689168789, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14080492179429754, 0.12201692367537707, 0.11148312237776047, 0.3248235119367309, 0.0, 0.10550819217920367, 0.0, 0.07040246089714884, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.049844324025378604, 0.04984432402537786, 0.03526725344584419, 0.0, 0.0, 0.07882063461243627, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.03526725344584395, 0.11687539931905308, 0.0, 0.0, 0.0, 0.15764126922487198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.15341333593459072, 0.1980662052510194, 0.07882063461243535, 0.07053450689168839, 0.0, 0.5216104560889827, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075558, 0.0, 0.0, 0.0, 0.03526725344584417, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07882063461243621, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.07866307196689305, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0352672534458441, 0.0705345068916883, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.12693816867568397, 0.10550819217920135, 0.06100846183768903, 0.03526725344584425, 0.0, 0.15764126922487065, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.0, 0.04984432402537808, 0.04984432402537803, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584388, 0.04984432402537787, 0.19533825956355105, 0.0, 0.0, 0.0, 0.1863173520225676, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168766, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07882063461243571, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843</t>
         </is>
       </c>
     </row>
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.34099999999999</v>
+        <v>71.91200000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.03</v>
+        <v>14.16</v>
       </c>
       <c r="D4" t="n">
-        <v>3.338900000000001</v>
+        <v>3.5397</v>
       </c>
       <c r="E4" t="n">
-        <v>19.64</v>
+        <v>21.71</v>
       </c>
       <c r="F4" t="n">
-        <v>5.7512</v>
+        <v>6.091900000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0144</v>
+        <v>0.0149</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3271</v>
+        <v>2.2365</v>
       </c>
       <c r="I4" t="n">
-        <v>4.24</v>
+        <v>129.37</v>
       </c>
       <c r="J4" t="n">
-        <v>321.5</v>
+        <v>323.72</v>
       </c>
       <c r="K4" t="n">
-        <v>5.854499999999999</v>
+        <v>6.443900000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>2.9263</v>
+        <v>2.5888</v>
       </c>
       <c r="M4" t="n">
-        <v>4.890700000000001</v>
+        <v>4.1726</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[77.14, 28.66, 111.85, 44.94, 12.59, 20.79, 0.35, 12.98, 2.75, 3.65, 1.89, 0.17, 2.2, 0.02, 0.26, 0.09, 0.05, 0.06, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[82.91, 25.33, 115.37, 42.9, 13.39, 20.01, 0.63, 13.8, 2.11, 2.7, 1.57, 0.1, 1.36, 0.07, 0.24, 0.12, 0.0, 0.05, 0.01, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[61.24, 0.96, 52.94, 0.28, 58.65, 15.63, 1.33, 56.06, 1.31, 49.99, 0.36, 22.75]</t>
+          <t>[27.21, 24.62, 26.99, 24.76, 30.41, 23.85, 32.1, 30.17, 24.44, 25.55, 23.45, 30.17]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[13.36, 64.47, 142.83, 25.33, 36.68, 3.18, 10.14, 2.3, 6.5, 1.1, 3.09, 0.82, 3.24, 0.58, 2.19, 0.45, 2.03, 0.28, 0.78, 0.06, 0.75, 0.04, 0.3, 0.06, 0.14, 0.07, 0.04, 0.02, 0.07, 0.0, 0.01, 0.0]</t>
+          <t>[5.98, 83.87, 156.18, 17.0, 30.86, 3.2, 7.79, 1.89, 4.84, 0.86, 2.53, 0.53, 2.22, 0.35, 1.27, 0.46, 1.4, 0.2, 0.49, 0.05, 0.38, 0.02, 0.12, 0.04, 0.12, 0.05, 0.11, 0.0, 0.05, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.25, 109.11, 55.77, 71.86, 11.34, 15.78, 0.0, 23.45, 0.0, 5.29, 2.14, 4.95, 1.91, 2.17, 0.0, 4.44, 0.0, 1.31, 0.69, 1.38, 0.77, 0.87, 0.0, 1.51, 0.0, 0.49, 0.32, 0.49, 0.19, 0.49, 0.0, 0.65, 0.01, 0.16, 0.01, 0.23, 0.06, 0.05, 0.0, 0.38, 0.0, 0.05, 0.01, 0.16, 0.01, 0.02, 0.0, 0.15, 0.0, 0.05, 0.01, 0.05, 0.0, 0.05, 0.0, 0.03, 0.0, 0.03, 0.01, 0.03, 0.01, 0.0, 0.0, 0.09]</t>
+          <t>[6.06, 118.58, 51.77, 82.82, 13.86, 13.93, 0.0, 16.05, 0.0, 3.03, 2.15, 3.58, 1.06, 1.09, 0.0, 3.09, 0.0, 0.74, 0.37, 1.01, 0.38, 0.41, 0.0, 0.96, 0.0, 0.41, 0.13, 0.34, 0.05, 0.12, 0.0, 0.37, 0.0, 0.09, 0.01, 0.19, 0.01, 0.1, 0.0, 0.18, 0.0, 0.01, 0.01, 0.08, 0.01, 0.0, 0.0, 0.03, 0.0, 0.02, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.05]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[16.05, 0.14, 15.11, 0.06, 4.98, 0.91, 0.03, 4.96, 0.05, 9.96, 0.05, 8.76], [0.07, 0.36, 0.16, 0.06, 0.03, 0.04, 0.03, 0.0, 0.0, 0.06, 0.04, 0.1], [16.1, 0.12, 11.61, 0.02, 16.2, 0.95, 0.12, 3.3, 0.01, 2.41, 0.02, 1.91], [0.05, 0.04, 0.0, 0.05, 0.01, 0.05, 0.0, 0.01, 0.02, 0.0, 0.03, 0.01], [5.49, 0.05, 18.05, 0.02, 13.17, 4.77, 0.43, 11.12, 0.04, 4.12, 0.01, 1.22], [0.52, 0.03, 1.0, 0.05, 5.61, 4.68, 0.02, 3.03, 0.08, 0.44, 0.02, 0.08], [0.02, 0.0, 0.2, 0.0, 0.51, 0.01, 0.19, 0.23, 0.04, 0.07, 0.0, 0.06], [4.69, 0.02, 3.33, 0.0, 11.87, 3.34, 0.27, 16.57, 0.06, 14.56, 0.04, 1.13], [0.04, 0.04, 0.03, 0.0, 0.08, 0.07, 0.0, 0.06, 0.68, 0.18, 0.05, 0.06], [9.89, 0.07, 2.23, 0.01, 4.8, 0.61, 0.14, 14.58, 0.23, 11.9, 0.03, 5.35], [0.06, 0.06, 0.02, 0.0, 0.02, 0.04, 0.01, 0.03, 0.05, 0.02, 0.04, 0.01], [8.02, 0.03, 1.16, 0.01, 1.03, 0.14, 0.09, 1.94, 0.05, 6.16, 0.03, 4.04]]</t>
+          <t>[[7.62, 0.58, 4.71, 1.51, 0.68, 0.92, 0.07, 1.83, 0.53, 1.68, 4.81, 2.16], [0.74, 6.08, 0.89, 4.1, 2.15, 0.38, 1.21, 0.07, 1.57, 0.55, 1.6, 5.21], [5.49, 1.11, 6.3, 0.7, 5.03, 1.95, 0.79, 1.62, 0.08, 1.26, 0.52, 2.13], [1.84, 4.46, 0.92, 6.46, 1.06, 3.91, 2.08, 0.62, 1.3, 0.03, 1.17, 0.8], [0.76, 2.0, 5.83, 1.4, 7.33, 0.99, 5.75, 2.29, 0.74, 1.57, 0.05, 1.57], [1.05, 0.45, 2.16, 4.53, 1.23, 6.44, 0.62, 4.74, 1.16, 0.34, 1.05, 0.03], [0.04, 1.72, 1.16, 2.34, 6.43, 0.75, 9.37, 1.6, 4.56, 1.78, 0.48, 1.81], [1.82, 0.03, 1.29, 0.68, 2.7, 5.24, 1.71, 8.32, 0.76, 4.76, 1.82, 0.92], [0.44, 1.46, 0.06, 1.16, 0.67, 1.32, 5.21, 0.91, 6.13, 0.84, 3.65, 2.43], [1.33, 0.52, 1.27, 0.05, 1.71, 0.45, 2.51, 5.36, 1.06, 6.37, 0.44, 4.42], [4.16, 1.2, 0.56, 1.08, 0.04, 1.31, 0.81, 1.76, 4.28, 0.64, 6.39, 1.16], [1.84, 4.92, 1.77, 0.67, 1.23, 0.09, 1.9, 0.99, 2.23, 5.62, 1.39, 7.46]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.03, 0.49, 0.43, 0.85, 0.08, 0.1, 0.0, 0.12, 0.0, 0.02, 0.0, 0.06, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.33, 61.24, 16.64, 13.52, 2.57, 4.49, 0.0, 2.78, 0.0, 2.01, 0.61, 0.79, 0.59, 0.93, 0.0, 0.8, 0.0, 0.3, 0.16, 0.18, 0.06, 0.17, 0.0, 0.19, 0.0, 0.08, 0.06, 0.03, 0.05, 0.08, 0.0, 0.06, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17, 16.11, 20.72, 7.77, 2.06, 2.09, 0.0, 2.37, 0.0, 0.8, 0.39, 0.45, 0.21, 0.2, 0.0, 0.57, 0.0, 0.23, 0.2, 0.24, 0.15, 0.15, 0.0, 0.25, 0.0, 0.14, 0.04, 0.02, 0.05, 0.05, 0.0, 0.04, 0.01, 0.02, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [1.28, 12.57, 7.77, 28.36, 2.99, 3.14, 0.0, 6.24, 0.0, 1.18, 0.58, 1.77, 0.6, 0.48, 0.0, 1.49, 0.0, 0.46, 0.13, 0.43, 0.19, 0.24, 0.0, 0.38, 0.0, 0.18, 0.07, 0.23, 0.0, 0.11, 0.0, 0.21, 0.0, 0.04, 0.01, 0.08, 0.02, 0.01, 0.0, 0.22, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.03, 0.0, 0.03, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.03], [0.05, 2.35, 1.76, 3.08, 1.26, 0.59, 0.0, 0.9, 0.0, 0.18, 0.11, 0.2, 0.08, 0.11, 0.0, 0.26, 0.0, 0.06, 0.03, 0.07, 0.05, 0.05, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.01, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0], [0.15, 3.78, 1.74, 3.17, 0.75, 2.78, 0.0, 1.27, 0.0, 0.31, 0.11, 0.26, 0.1, 0.21, 0.0, 0.26, 0.0, 0.12, 0.03, 0.13, 0.05, 0.1, 0.0, 0.13, 0.0, 0.03, 0.01, 0.03, 0.0, 0.07, 0.0, 0.05, 0.0, 0.01, 0.0, 0.03, 0.01, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 3.14, 1.82, 5.4, 0.57, 0.9, 0.0, 7.5, 0.0, 0.33, 0.15, 0.64, 0.15, 0.1, 0.0, 0.7, 0.0, 0.06, 0.11, 0.21, 0.13, 0.09, 0.0, 0.43, 0.0, 0.02, 0.08, 0.09, 0.03, 0.05, 0.0, 0.16, 0.0, 0.04, 0.0, 0.07, 0.01, 0.0, 0.0, 0.08, 0.0, 0.01, 0.0, 0.03, 0.01, 0.01, 0.0, 0.1, 0.0, 0.02, 0.01, 0.01, 0.0, 0.03, 0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.04], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 2.39, 0.76, 1.04, 0.15, 0.3, 0.0, 0.14, 0.0, 0.07, 0.05, 0.08, 0.02, 0.02, 0.0, 0.04, 0.0, 0.02, 0.01, 0.01, 0.01, 0.03, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.68, 0.48, 0.59, 0.05, 0.08, 0.0, 0.1, 0.0, 0.01, 0.01, 0.02, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 1.08, 0.42, 2.06, 0.2, 0.14, 0.0, 0.35, 0.0, 0.1, 0.04, 0.26, 0.04, 0.02, 0.0, 0.06, 0.0, 0.01, 0.01, 0.01, 0.02, 0.01, 0.0, 0.01, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.74, 0.31, 0.51, 0.07, 0.14, 0.0, 0.06, 0.0, 0.02, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.87, 0.37, 0.55, 0.04, 0.09, 0.0, 0.08, 0.0, 0.04, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.94, 0.58, 1.51, 0.1, 0.2, 0.0, 0.64, 0.0, 0.06, 0.02, 0.14, 0.03, 0.02, 0.0, 0.07, 0.0, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.43, 0.31, 0.32, 0.06, 0.06, 0.0, 0.05, 0.0, 0.02, 0.0, 0.0, 0.02, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17, 0.14, 0.2, 0.02, 0.03, 0.0, 0.04, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.05, 0.31, 0.29, 0.4, 0.06, 0.07, 0.0, 0.08, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.22, 0.11, 0.18, 0.03, 0.08, 0.0, 0.05, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.32, 0.15, 0.14, 0.0, 0.11, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.3, 0.28, 0.44, 0.07, 0.1, 0.0, 0.15, 0.0, 0.03, 0.0, 0.04, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1, 0.09, 0.17, 0.0, 0.04, 0.0, 0.03, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.08, 0.06, 0.11, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.07, 0.04, 0.15, 0.05, 0.05, 0.0, 0.04, 0.0, 0.0, 0.01, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.03, 0.05, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14, 0.06, 0.1, 0.04, 0.04, 0.0, 0.03, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09, 0.1, 0.18, 0.04, 0.02, 0.0, 0.12, 0.0, 0.0, 0.0, 0.02, 0.01, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.04, 0.03, 0.01, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.02, 0.0, 0.14, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.2, 0.02, 0.03, 0.0, 0.03, 0.0, 0.0, 0.01, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.01, 0.05, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.02, 0.06, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.13, 3.14, 0.83, 1.44, 0.06, 0.11, 0.0, 0.18, 0.0, 0.04, 0.01, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [3.74, 65.65, 16.93, 16.97, 3.35, 4.73, 0.0, 2.66, 0.0, 0.97, 0.54, 0.67, 0.28, 0.36, 0.0, 0.42, 0.0, 0.16, 0.08, 0.18, 0.01, 0.1, 0.0, 0.23, 0.0, 0.04, 0.01, 0.03, 0.02, 0.03, 0.0, 0.05, 0.0, 0.01, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13, 16.17, 18.5, 8.14, 2.79, 1.79, 0.0, 1.39, 0.0, 0.61, 0.4, 0.38, 0.15, 0.17, 0.0, 0.3, 0.0, 0.08, 0.05, 0.13, 0.12, 0.03, 0.0, 0.09, 0.0, 0.07, 0.01, 0.01, 0.0, 0.01, 0.0, 0.04, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [1.73, 15.91, 7.17, 37.44, 3.02, 2.86, 0.0, 6.83, 0.0, 0.79, 0.66, 1.75, 0.32, 0.32, 0.0, 1.42, 0.0, 0.26, 0.09, 0.4, 0.06, 0.14, 0.0, 0.31, 0.0, 0.19, 0.02, 0.14, 0.01, 0.05, 0.0, 0.21, 0.0, 0.06, 0.0, 0.12, 0.0, 0.01, 0.0, 0.09, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03], [0.03, 3.05, 2.12, 3.2, 2.47, 1.08, 0.0, 0.75, 0.0, 0.12, 0.17, 0.15, 0.09, 0.06, 0.0, 0.16, 0.0, 0.06, 0.06, 0.06, 0.04, 0.03, 0.0, 0.04, 0.0, 0.03, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.08, 4.23, 1.95, 2.85, 0.84, 1.83, 0.0, 0.78, 0.0, 0.18, 0.14, 0.2, 0.13, 0.07, 0.0, 0.14, 0.0, 0.09, 0.01, 0.05, 0.04, 0.06, 0.0, 0.07, 0.0, 0.01, 0.03, 0.03, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06, 3.33, 1.39, 5.6, 0.64, 0.7, 0.0, 2.49, 0.0, 0.17, 0.06, 0.25, 0.03, 0.05, 0.0, 0.44, 0.0, 0.04, 0.03, 0.15, 0.06, 0.05, 0.0, 0.14, 0.0, 0.04, 0.04, 0.11, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.39, 0.42, 0.73, 0.09, 0.13, 0.0, 0.11, 0.0, 0.03, 0.02, 0.01, 0.03, 0.0, 0.0, 0.03, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.75, 0.5, 0.57, 0.05, 0.08, 0.0, 0.1, 0.0, 0.01, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.05, 1.14, 0.35, 1.53, 0.1, 0.12, 0.0, 0.09, 0.0, 0.05, 0.03, 0.03, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.46, 0.15, 0.24, 0.07, 0.1, 0.0, 0.02, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.45, 0.2, 0.25, 0.03, 0.06, 0.0, 0.04, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.82, 0.38, 1.25, 0.06, 0.13, 0.0, 0.24, 0.0, 0.01, 0.0, 0.02, 0.01, 0.01, 0.0, 0.04, 0.0, 0.01, 0.0, 0.03, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.29, 0.11, 0.23, 0.01, 0.04, 0.0, 0.04, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13, 0.05, 0.11, 0.04, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.23, 0.15, 0.43, 0.05, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.17, 0.06, 0.1, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.16, 0.04, 0.16, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3, 0.05, 0.37, 0.05, 0.05, 0.0, 0.1, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.09, 0.05, 0.04, 0.0, 0.0, 0.06, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05, 0.04, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.01, 0.2, 0.03, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.03, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.02, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.1, 0.03, 0.15, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.03, 0.01, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.12, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.01, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.09, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.07, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.498599005316271</v>
+        <v>4.684160757275523</v>
       </c>
       <c r="C5" t="n">
-        <v>2.515770259781286</v>
+        <v>2.472731283419208</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5381856464083746</v>
+        <v>0.520660071447773</v>
       </c>
       <c r="E5" t="n">
-        <v>3.790831043452082</v>
+        <v>3.2993787293974</v>
       </c>
       <c r="F5" t="n">
-        <v>1.206702349380327</v>
+        <v>1.022585639445421</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01899052395275075</v>
+        <v>0.02229327252782776</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2742272597682441</v>
+        <v>0.1902386658910328</v>
       </c>
       <c r="I5" t="n">
-        <v>12.54919917763679</v>
+        <v>94.04133718743051</v>
       </c>
       <c r="J5" t="n">
-        <v>5.503635162326805</v>
+        <v>4.159519202984883</v>
       </c>
       <c r="K5" t="n">
-        <v>1.648418863638729</v>
+        <v>1.605469336362423</v>
       </c>
       <c r="L5" t="n">
-        <v>0.891343542075669</v>
+        <v>0.6369933751617829</v>
       </c>
       <c r="M5" t="n">
-        <v>2.065812796455671</v>
+        <v>1.317708328880105</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[18.27786639627284, 25.293959753269156, 19.701966906885207, 17.3791944577417, 4.82098537645573, 6.350267710892194, 0.7262919523166977, 4.959798382999051, 2.011839953873071, 3.188651752700504, 1.482531618549838, 0.4255584566190644, 1.6852299546352714, 0.13999999999999996, 0.5765414122159824, 0.2861817604250837, 0.2179449471770337, 0.2764054992217044, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.09949874371066193, 0.19899748742132398, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[16.16050432381366, 17.823610745300737, 13.96256065340452, 13.278930679840146, 6.329131062002112, 5.040823345446655, 1.2137133104650364, 3.7496666518505353, 1.580474612260508, 2.0174241001832014, 1.3509626197641444, 0.3316624790355398, 1.445821565754226, 0.2917190429162964, 0.4923413450036472, 0.3544009029333872, 0.0, 0.21794494717703383, 0.09949874371066193, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[19.608222764952465, 4.442791915001195, 17.29787270157808, 1.2335315156087414, 14.038785560011945, 21.300072769828756, 5.44620051044763, 23.938178711004724, 5.045185824129771, 23.493614025943305, 1.717672844286711, 23.589563370270337]</t>
+          <t>[30.019758493365654, 28.605516950406614, 27.253071386542832, 28.780938136203968, 29.657746037081115, 30.081348041602123, 32.51999384993793, 31.219883087545362, 27.995113859386247, 27.916079595817173, 28.8344845627592, 26.496058197399858]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[20.14920345820152, 61.66302863142549, 72.58843640690986, 29.67593469463094, 37.19889245663102, 2.750927116446381, 9.81633332767383, 2.9478805945967363, 4.859012245302536, 1.4798648586948746, 3.1435489498336113, 1.1948221624995077, 3.409164120426002, 0.9816312953446416, 2.879913193136211, 0.8411301920630365, 2.4060548622174025, 0.5670978751503125, 1.2615863030328123, 0.27640549922170476, 1.329473580030833, 0.24166091947189128, 0.7280109889280528, 0.27640549922170493, 0.4004996878900156, 0.2551470164434616, 0.1959591794226541, 0.13999999999999987, 0.25514701644346155, 0.0, 0.09949874371066196, 0.0]</t>
+          <t>[15.358372309590617, 74.72103519090187, 69.4157590176755, 17.487709970147606, 25.875092270366878, 3.373425558686601, 5.33909168304872, 2.092343184088117, 3.6761936836896933, 1.166361864945866, 2.2291478192349636, 0.8538735269347568, 2.229708501127447, 0.7794228634059951, 1.6483628241379389, 0.8052328855678957, 1.593737745050923, 0.5477225575051656, 0.8774394566008521, 0.2179449471770337, 0.6896375859826666, 0.13999999999999996, 0.3249615361854386, 0.2416609194718914, 0.32496153618543866, 0.2598076211353316, 0.371348892552543, 0.0, 0.2179449471770342, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[4.5108203245086145, 85.00457575919074, 61.366416711422886, 60.82713539202714, 15.117023516552456, 21.76078123597588, 0.0, 39.725401193694715, 0.0, 5.609447388112309, 2.8566413845633485, 8.076354375583076, 2.1958825105182664, 3.2712535823442375, 0.0, 4.57890816680134, 0.0, 1.616756011276903, 0.9868637190615537, 1.5606408939919525, 1.4412147653975778, 1.4328642643321108, 0.0, 1.9209112420931906, 0.0, 0.7936623967405785, 0.7332121111929347, 1.2123943252918996, 0.5421254467371919, 0.9848350115628501, 0.0, 1.4517231140957991, 0.09949874371066196, 0.4176122603564226, 0.09949874371066195, 0.8349251463454663, 0.2764054992217047, 0.21794494717703386, 0.0, 2.1202829999790147, 0.0, 0.2958039891549802, 0.09949874371066199, 0.7838367176906151, 0.09949874371066196, 0.13999999999999985, 0.0, 0.6062177826491076, 0.0, 0.29580398915498096, 0.09949874371066196, 0.2598076211353319, 0.0, 0.3278719262150993, 0.0, 0.22158519806160334, 0.0, 0.22158519806160315, 0.09949874371066197, 0.2215851980616029, 0.09949874371066196, 0.0, 0.0, 0.4264973622427222]</t>
+          <t>[11.24706183854254, 81.57158573915306, 58.952329046442266, 69.36431070802911, 21.400009345792355, 14.703914444800064, 0.0, 17.1483964264884, 0.0, 2.927302512553153, 2.6697378148424975, 3.5949408896392154, 1.4820256408038295, 1.3645145656972668, 0.0, 3.0857576055160263, 0.0, 1.1714947716485975, 0.7437069315261217, 1.381991316904706, 0.8459314393022646, 0.7886063656856955, 0.0, 1.5160474926597796, 0.0, 0.8496469855181037, 0.36482872693909385, 0.7512655988397182, 0.2179449471770336, 0.3249615361854386, 0.0, 0.7956758133813032, 0.0, 0.3766961640367478, 0.09949874371066196, 0.5602677931132581, 0.09949874371066199, 0.3316624790355397, 0.0, 0.6982836100038448, 0.0, 0.09949874371066196, 0.09949874371066196, 0.27129319932501095, 0.09949874371066196, 0.0, 0.0, 0.17058722109231986, 0.0, 0.13999999999999985, 0.0, 0.195959179422654, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.25980762113533207]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[11.366067921669307, 0.824863625092051, 6.907814415573133, 0.31048349392520047, 3.0165543257166783, 1.3348782716038206, 0.17058722109231975, 4.012281146679528, 0.25980762113533157, 6.779262496761725, 0.2179449471770336, 8.987902981229825], [0.38091993909481814, 1.8736061485808595, 0.6280127387243032, 0.31048349392520036, 0.298496231131986, 0.24166091947189144, 0.17058722109231977, 0.0, 0.0, 0.3411744421846397, 0.24166091947189144, 0.5567764362830028], [7.006425622241342, 0.4534313619501853, 8.694705285402144, 0.13999999999999985, 6.291263784010332, 1.564448784716202, 0.667532770731145, 2.658947160061666, 0.09949874371066197, 2.1545069041430325, 0.19899748742132398, 3.0662517835298515], [0.2958039891549808, 0.24166091947189142, 0.0, 0.2598076211353317, 0.09949874371066199, 0.2179449471770336, 0.0, 0.09949874371066199, 0.13999999999999993, 0.0, 0.22158519806160334, 0.09949874371066197], [2.762227362111961, 0.3570714214271422, 6.318821092577317, 0.13999999999999996, 7.386548585097102, 6.147934612534522, 1.721946572922633, 6.776842922777537, 0.19595917942265423, 2.9267046314925613, 0.09949874371066199, 1.7121915780659596], [0.9641576634555156, 0.22158519806160334, 1.6492422502470643, 0.2958039891549808, 6.625549033853722, 9.300408593174819, 0.13999999999999996, 4.875356397228819, 0.271293199325011, 0.7787168933572722, 0.1399999999999999, 0.271293199325011], [0.13999999999999987, 0.0, 0.8831760866327856, 0.0, 2.1931484217900095, 0.09949874371066197, 0.9559811713627008, 1.047425415005764, 0.24166091947189128, 0.2551470164434615, 0.0, 0.31048349392520064], [3.689701884976616, 0.13999999999999987, 2.2138428128482834, 0.0, 6.265229445120106, 4.80045831145319, 1.4060938802227971, 14.703914444800061, 0.3411744421846397, 7.654175331150967, 0.24166091947189144, 1.453650576995724], [0.24166091947189144, 0.31368774282716233, 0.17058722109231977, 0.0, 0.3059411708155668, 0.3241913015489466, 0.0, 0.34117444218463966, 3.4608669434117223, 0.5546169849544815, 0.3278719262151, 0.3411744421846397], [7.2344937625240915, 0.35369478367654755, 1.9842126902124178, 0.09949874371066197, 3.870400496072726, 0.8932524839036281, 0.7213875518748556, 7.025923426852872, 0.6907242575731654, 11.982904489313096, 0.17058722109231983, 5.983936831217389], [0.3411744421846395, 0.3411744421846397, 0.13999999999999999, 0.0, 0.13999999999999985, 0.24166091947189144, 0.09949874371066199, 0.17058722109231986, 0.35707142142714254, 0.13999999999999993, 0.27999999999999997, 0.09949874371066196], [9.526783297629894, 0.17058722109231972, 2.5873538606073967, 0.09949874371066196, 1.4930170796075979, 0.37469987990390413, 0.4023679907746144, 2.0871990801071187, 0.21794494717703367, 6.217266280287502, 0.2215851980616033, 6.7763116811433655]]</t>
+          <t>[[10.517395114761062, 2.0158372950216012, 7.2142844413011655, 3.6290356845861935, 1.4891608375189034, 1.5979987484350535, 0.2917190429162965, 2.502219015194313, 1.4727864746798842, 3.6107616924964745, 8.554174419545113, 4.557894250638117], [2.356353114454622, 8.636758651253373, 3.7064673207786294, 7.509327533141704, 4.883390215823426, 1.5018655066283402, 1.8989207461081667, 0.353694783676547, 2.3968938232637673, 1.259960316835415, 3.8157568056677795, 8.00036874150186], [7.947949421077107, 3.7547170332795994, 7.579577824654875, 2.0469489490458725, 7.168619113887977, 5.2542839664410925, 2.268457625788941, 2.08700742691539, 0.33704599092705384, 1.9627531683836368, 1.3302631318652705, 3.799091996780284], [4.339861748950076, 7.941561559290461, 2.406989821332862, 9.647196483953252, 2.6222890763605764, 7.236152292482525, 4.655491381154087, 1.7191858538273288, 2.2605309110914624, 0.1705872210923198, 1.964968193126799, 1.7663521732655676], [1.6620469307453383, 4.458699361921591, 8.343925934474733, 3.423448553724739, 9.368089453031498, 3.318116935853828, 9.240535698756863, 4.626651056649936, 1.6469365500832138, 2.311947231231717, 0.2179449471770337, 2.02610463698201], [1.7909494688572314, 1.3518505834595773, 5.620889609305625, 8.63649813292402, 3.9290075082646476, 9.890722926055506, 1.7594317264389674, 8.025733611328, 3.4546200948874244, 0.8856635930193812, 1.7741194999210175, 0.17058722109231986], [0.24166091947189125, 2.4782251713676056, 3.1296006134968724, 4.952211627141961, 10.420417458048409, 2.1880356487041066, 11.485342833368101, 4.113392760240623, 7.423368507625092, 4.092871852379452, 1.1956588142108107, 2.3609108411797344], [2.3038229098609135, 0.17058722109231975, 1.8127051608024962, 1.9229144546755064, 5.356304696336831, 8.395379681705881, 4.423335845264292, 10.689134670308913, 2.3113632341109867, 7.827030088098547, 4.281074631444775, 2.038038272457121], [1.4093970341958302, 2.3212927432790553, 0.2764054992217046, 1.9427815111329416, 1.6189811611010179, 3.5464912237308566, 8.041511052034938, 2.811031839022814, 8.396016912798594, 1.8039955654047497, 7.171296953829212, 4.554678912942162], [2.846243137892476, 1.3452137376640179, 2.148743819071973, 0.21794494717703367, 2.3845125287991253, 1.336974195712092, 5.538041169944477, 8.53758748125019, 2.708578963220383, 10.014644277257181, 1.298614646459835, 6.5546624627054575], [7.27285363526587, 2.996664812754342, 1.5186836405255715, 1.9833305322109087, 0.27999999999999975, 2.3095237604320062, 2.309523760432008, 4.501377566923266, 7.523403485125602, 1.8629009635512044, 9.434929782462603, 3.161392098427526], [3.92102027538752, 7.655951932973457, 3.4694524063604044, 1.6855562879951536, 1.6664633209284865, 0.34914180500192205, 2.886173937932363, 1.9773467070799688, 4.619209889147709, 7.717227481421031, 3.7037683512876445, 8.436136556505]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.17058722109231977, 1.0629675441893787, 1.1597844627343477, 2.3890374630800575, 0.2712931993250109, 0.38729833462074154, 0.0, 0.5878775382679632, 0.0, 0.13999999999999999, 0.0, 0.276405499221705, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.7880989785553583, 65.78086651907225, 20.797846042318902, 12.539920254929854, 3.742338840885469, 5.0606224913542, 0.0, 3.001932710771512, 0.0, 3.567898541158367, 1.094486180817283, 1.2672410978184059, 1.0779146533933015, 2.145949673221625, 0.0, 1.256980508997653, 0.0, 0.7000000000000011, 0.4176122603564226, 0.5546169849544816, 0.23748684174075832, 0.6790434448545984, 0.0, 0.4170131892398609, 0.0, 0.271293199325011, 0.23748684174075824, 0.17058722109231966, 0.259807621135332, 0.365513337649941, 0.0, 0.31048349392520064, 0.0, 0.17058722109231983, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.5109794516416488, 20.214299394240697, 38.20918214251646, 10.99714053743063, 3.3520739848637002, 3.633441894402606, 0.0, 4.036471231162189, 0.0, 1.4899664425751338, 0.7469270379361024, 0.8645808232895293, 0.5346961754117942, 0.5656854249492377, 0.0, 1.202123121814068, 0.0, 0.5070502933634888, 0.4690415759823426, 0.6183849933496126, 0.38405728739343065, 0.5172040216394305, 0.0, 0.698212002188447, 0.0, 0.4004996878900159, 0.2416609194718914, 0.13999999999999999, 0.25980762113533157, 0.2958039891549809, 0.0, 0.19595917942265423, 0.09949874371066196, 0.1989974874213239, 0.0, 0.0, 0.09949874371066195, 0.13999999999999993, 0.0, 0.0, 0.0, 0.1989974874213239, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [2.9802013354805426, 11.481511224573186, 11.162307109195664, 44.62858276934189, 5.671851549538299, 5.053751082117125, 0.0, 9.11714867708101, 0.0, 1.8888091486436644, 1.1240996397117113, 3.4083867151483824, 1.0677078252031307, 0.974474217206387, 0.0, 2.224837072686447, 0.0, 0.7799999999999997, 0.33630343441600447, 0.8860586888011422, 0.868274150254401, 0.5678027826631361, 0.0, 0.7846018098373208, 0.0, 0.606300255648965, 0.2917190429162965, 0.597578446733147, 0.0, 0.371348892552543, 0.0, 0.6212084996198941, 0.0, 0.19595917942265406, 0.09949874371066195, 0.33704599092705384, 0.19899748742132392, 0.09949874371066196, 0.0, 1.3234802605252538, 0.0, 0.0, 0.0, 0.24166091947189128, 0.0, 0.0, 0.0, 0.1705872210923197, 0.0, 0.22158519806160343, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.22158519806160315], [0.2179449471770336, 3.8636122993903, 2.9124560082514566, 6.062474742215425, 4.5598684191542205, 1.6192282112166871, 0.0, 1.7349351572897473, 0.0, 0.5173006862551022, 0.487749935930288, 0.547722557505166, 0.3370459909270539, 0.371348892552543, 0.0, 0.6102458520956939, 0.0, 0.23748684174075832, 0.1705872210923196, 0.25514701644346155, 0.21794494717703403, 0.21794494717703367, 0.0, 0.19595917942265423, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.19595917942265392, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0], [0.5894913061275802, 4.553196679257331, 2.5869673364772123, 5.540857334384273, 1.6874537030686205, 7.855673109288594, 0.0, 2.5684820419851118, 0.0, 0.783517708797957, 0.4217819341792631, 0.6102458520956939, 0.38729833462074154, 0.4958830507286976, 0.0, 0.6575712889109434, 0.0, 0.3544009029333872, 0.17058722109231983, 0.4160528812542942, 0.2598076211353321, 0.3316624790355398, 0.0, 0.46162755550335144, 0.0, 0.17058722109231958, 0.09949874371066196, 0.1705872210923198, 0.0, 0.2551470164434616, 0.0, 0.2598076211353316, 0.0, 0.09949874371066197, 0.0, 0.22158519806160312, 0.09949874371066195, 0.0, 0.0, 0.1399999999999999, 0.0, 0.09949874371066195, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 3.224965116090406, 3.263066042849885, 7.934733769950947, 1.3802535998866297, 2.1563858652847823, 0.0, 32.480301722736506, 0.0, 0.6641535966928126, 0.4330127018922197, 1.652392205258791, 0.4555216789572152, 0.33166247903553986, 0.0, 1.9313207915827977, 0.0, 0.2374868417407582, 0.3433656942677881, 0.5530822723609934, 0.43943145085439644, 0.3192177939902477, 0.0, 1.1683749398202614, 0.0, 0.13999999999999987, 0.2712931993250109, 0.40236799077461416, 0.22158519806160334, 0.2598076211353316, 0.0, 0.6887670143089015, 0.0, 0.2416609194718911, 0.0, 0.32419130154894604, 0.09949874371066196, 0.0, 0.0, 0.3919183588453076, 0.0, 0.09949874371066193, 0.0, 0.22158519806160273, 0.09949874371066196, 0.09949874371066193, 0.0, 0.4795831523312732, 0.0, 0.19899748742132387, 0.09949874371066196, 0.09949874371066196, 0.0, 0.17058722109232002, 0.0, 0.22158519806160334, 0.0, 0.0, 0.0, 0.19899748742132387, 0.0, 0.0, 0.0, 0.31368774282716233], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.24166091947189147, 3.880451004715817, 1.3499629624548959, 1.548676854608476, 0.43301270189222, 0.9539392014169469, 0.0, 0.44766058571198825, 0.0, 0.29171904291629636, 0.2179449471770336, 0.3059411708155671, 0.13999999999999985, 0.13999999999999993, 0.0, 0.195959179422654, 0.0, 0.13999999999999987, 0.09949874371066196, 0.09949874371066199, 0.09949874371066195, 0.17058722109231972, 0.0, 0.09949874371066199, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 1.0087616170334803, 1.0047885349664383, 1.31981059247151, 0.21794494717703372, 0.4400000000000001, 0.0, 0.3872983346207414, 0.0, 0.09949874371066199, 0.09949874371066199, 0.19899748742132398, 0.09949874371066193, 0.13999999999999985, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.17058722109231975, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 1.4469277798148743, 0.8623224454924041, 4.404134421200152, 0.6633249580710796, 0.37469987990390397, 0.0, 1.194780314534853, 0.0, 0.3872983346207415, 0.24166091947189144, 2.0030976012166817, 0.19595917942265398, 0.13999999999999993, 0.0, 0.2374868417407581, 0.0, 0.09949874371066195, 0.09949874371066197, 0.09949874371066196, 0.13999999999999987, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.09949874371066193, 0.09949874371066193, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.2932130528261758, 0.7961783719745219, 0.8774394566008528, 0.29171904291629647, 0.5102940328869232, 0.0, 0.23748684174075818, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.09949874371066196, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1399999999999999, 1.9781557067126936, 0.757033684851605, 1.1346805717910209, 0.19595917942265423, 0.3491418050019217, 0.0, 0.3059411708155668, 0.0, 0.19595917942265415, 0.0, 0.19899748742132395, 0.09949874371066195, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.17058722109231989, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 1.2870120434556946, 1.3577923257994937, 2.4758634857358355, 0.3316624790355398, 0.5830951894845295, 0.0, 1.9314243448812596, 0.0, 0.2374868417407581, 0.13999999999999985, 0.44766058571198825, 0.2215851980616033, 0.13999999999999996, 0.0, 0.3536947836765476, 0.0, 0.09949874371066196, 0.0, 0.21794494717703375, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999993, 0.7778817390837757, 0.6884039511798287, 0.6305553108173785, 0.31048349392520047, 0.27640549922170443, 0.0, 0.2179449471770339, 0.0, 0.13999999999999987, 0.0, 0.0, 0.13999999999999993, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4910193478876369, 0.42473521163190625, 0.48989794855663527, 0.13999999999999996, 0.1705872210923198, 0.0, 0.19595917942265415, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2179449471770337, 0.6587108622149782, 0.6048966853934643, 0.9486832980505131, 0.2374868417407582, 0.2917190429162964, 0.0, 0.39191835884530823, 0.0, 0.09949874371066196, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.6095900261651276, 0.39736632972611075, 0.5173006862551023, 0.17058722109231989, 0.33704599092705356, 0.0, 0.25980762113533196, 0.0, 0.09949874371066195, 0.09949874371066196, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.9042123644365861, 0.43301270189221963, 0.4476605857119878, 0.0, 0.3433656942677881, 0.0, 0.21794494717703367, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.7141428428542864, 0.6337191807101942, 1.0326664514740471, 0.32419130154894604, 0.3872983346207415, 0.0, 0.5545268253204713, 0.0, 0.1705872210923198, 0.0, 0.1959591794226539, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.19899748742132392, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.29999999999999977, 0.3192177939902475, 0.44844174649557345, 0.0, 0.19595917942265417, 0.0, 0.17058722109231986, 0.0, 0.09949874371066195, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066193, 0.2712931993250109, 0.27640549922170504, 0.46679760067935244, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.25514701644346155, 0.24166091947189142, 0.6689544080129828, 0.259807621135332, 0.21794494717703367, 0.0, 0.19595917942265403, 0.0, 0.0, 0.09949874371066197, 0.19595917942265417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.23748684174075815, 0.298496231131986, 0.21794494717703364, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.44766058571198797, 0.3104834939252006, 0.36055512754639873, 0.19595917942265417, 0.19595917942265412, 0.0, 0.17058722109231983, 0.0, 0.13999999999999987, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.31921779399024747, 0.4123105625617661, 0.6384355879804956, 0.24166091947189125, 0.13999999999999987, 0.0, 0.9086253353280425, 0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066195, 0.09949874371066199, 0.0, 0.17058722109231977, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1959591794226542, 0.24166091947189114, 0.1705872210923199, 0.09949874371066196, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.13999999999999987, 0.0, 0.6167657578043699, 0.09949874371066196, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066195, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 1.4491376746189426, 0.13999999999999987, 0.17058722109231972, 0.0, 0.17058722109232, 0.0, 0.0, 0.09949874371066193, 0.31368774282716216, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19899748742132387, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999993, 0.09949874371066196, 0.3278719262150993, 0.09949874371066196, 0.09949874371066195, 0.0, 0.19899748742132387, 0.0, 0.0, 0.13999999999999985, 0.09949874371066193, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.13999999999999987, 0.34117444218464, 0.0, 0.0, 0.0, 0.17058722109232005, 0.0, 0.09949874371066196, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.22158519806160343, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066193, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.17058722109232002, 0.0, 0.09949874371066193, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.22158519806160334, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.19899748742132387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.22158519806160315, 0.0, 0.0, 0.0, 0.29849623113198576, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.4160528812542942, 7.824346618088948, 1.7265862272125292, 3.800842011975765, 0.23748684174075801, 0.4217819341792631, 0.0, 0.6982836100038445, 0.0, 0.19595917942265428, 0.09949874371066197, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [8.777949646699968, 67.29626661264349, 18.631830291197907, 15.240377291917673, 3.51390096616282, 4.805944236047688, 0.0, 2.9162304435692317, 0.0, 1.664061296947922, 0.8765842800324452, 1.281054253339803, 0.5670978751503126, 0.8662563131083084, 0.0, 0.7372923436466704, 0.0, 0.41761226035642235, 0.27129319932501084, 0.4770744176750625, 0.09949874371066197, 0.3316624790355398, 0.0, 0.5631163290120437, 0.0, 0.1959591794226541, 0.09949874371066196, 0.17058722109231989, 0.13999999999999993, 0.17058722109231986, 0.0, 0.21794494717703383, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3363034344160044, 17.627282830884628, 37.950098814100606, 10.438409840583954, 4.716555946874797, 2.6202862439054244, 0.0, 2.039092935596609, 0.0, 1.1215614116043766, 0.7615773105863903, 0.7039886362719215, 0.4769696007084732, 0.4484417464955734, 0.0, 0.9000000000000015, 0.0, 0.30594117081556665, 0.25980762113533173, 0.4828043081829323, 0.453431361950185, 0.22158519806160326, 0.0, 0.2861817604250837, 0.0, 0.29171904291629625, 0.09949874371066197, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.24166091947189147, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.09949874371066193, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [4.2446554630499715, 14.256293347150233, 9.9940532317974, 55.051488626557585, 5.151659926664414, 2.796497809761347, 0.0, 10.075767960805774, 0.0, 1.0029456615390486, 1.4437451298619146, 2.80490641555115, 0.6462197768561405, 0.5635601121442144, 0.0, 2.045385049324453, 0.0, 0.715821206726931, 0.2861817604250839, 0.8366600265340748, 0.2764054992217046, 0.4903060268852509, 0.0, 0.7306846104852627, 0.0, 0.542125446737192, 0.13999999999999996, 0.4004996878900159, 0.09949874371066199, 0.21794494717703367, 0.0, 0.6212084996198942, 0.0, 0.3104834939252009, 0.0, 0.4955804677345534, 0.0, 0.09949874371066199, 0.0, 0.34914180500192243, 0.0, 0.0, 0.0, 0.217944947177034, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.09949874371066193, 0.0, 0.13999999999999985, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.2215851980616035], [0.17058722109231994, 3.5563323804166562, 3.3564266713277107, 5.033885179461286, 8.705693539287955, 2.689535275842277, 0.0, 1.499166435056495, 0.0, 0.3249615361854386, 0.47021271782035, 0.5172040216394304, 0.3192177939902477, 0.2764054992217045, 0.0, 0.41761226035642257, 0.0, 0.2764054992217046, 0.23748684174075807, 0.2764054992217048, 0.19595917942265423, 0.17058722109231983, 0.0, 0.2416609194718914, 0.0, 0.17058722109231983, 0.09949874371066195, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.271293199325011, 4.4336328219644, 2.8013389655662886, 3.3507461855533007, 2.096282423720621, 4.83540070728373, 0.0, 2.547861848688032, 0.0, 0.5173006862551026, 0.3469870314579493, 0.5099019513592782, 0.5595533933415111, 0.32419130154894654, 0.0, 0.4004996878900158, 0.0, 0.34914180500192205, 0.09949874371066199, 0.21794494717703375, 0.1959591794226543, 0.2374868417407584, 0.0, 0.2551470164434616, 0.0, 0.09949874371066199, 0.17058722109231972, 0.2215851980616034, 0.0, 0.0, 0.0, 0.1705872210923198, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2764054992217045, 3.21264688380158, 1.8968131167829894, 8.778382538941894, 1.352922762023022, 2.3558437978779496, 0.0, 5.7783994323687935, 0.0, 0.44844174649557345, 0.23748684174075807, 0.7664854858377946, 0.1705872210923199, 0.21794494717703375, 0.0, 1.0326664514740473, 0.0, 0.19595917942265423, 0.1705872210923199, 0.409267638593623, 0.23748684174075818, 0.25980762113533173, 0.0, 0.5102940328869232, 0.0, 0.19595917942265415, 0.1959591794226541, 0.421781934179263, 0.0, 0.09949874371066196, 0.0, 0.13999999999999985, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.3136877428271623, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.09949874371066196, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.0044700047643516, 0.8852118390532292, 1.173499041328965, 0.3491418050019219, 0.4394314508543966, 0.0, 0.421781934179263, 0.0, 0.17058722109231972, 0.13999999999999993, 0.09949874371066199, 0.17058722109231994, 0.0, 0.0, 0.1705872210923198, 0.0, 0.09949874371066195, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.1434596626029272, 0.8544003745317531, 1.1853691408164804, 0.29580398915498085, 0.33704599092705423, 0.0, 0.4358898943540683, 0.0, 0.09949874371066195, 0.24166091947189122, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.21794494717703364, 1.4698299221338496, 0.7123903424387507, 3.034649897434629, 0.38729833462074154, 0.3815756805667784, 0.0, 0.37669616403674766, 0.0, 0.2179449471770338, 0.22158519806160293, 0.17058722109231983, 0.09949874371066199, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.8416650165000329, 0.4092676385936229, 0.567802782663136, 0.25514701644346155, 0.4123105625617663, 0.0, 0.13999999999999987, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7921489758877431, 0.5291502622129178, 0.5545268253204708, 0.17058722109231994, 0.2764054992217047, 0.0, 0.19595917942265415, 0.0, 0.09949874371066199, 0.09949874371066193, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1705872210923197, 1.125877435603005, 0.8340263784797218, 2.2951034835057, 0.23748684174075815, 0.41605288125429407, 0.0, 0.6945502141674137, 0.0, 0.09949874371066199, 0.0, 0.1399999999999999, 0.09949874371066195, 0.09949874371066197, 0.0, 0.24166091947189125, 0.0, 0.09949874371066199, 0.0, 0.1705872210923198, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6526101439603891, 0.37134889255254305, 0.5975784467331466, 0.09949874371066195, 0.24166091947189142, 0.0, 0.2416609194718914, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.36482872693909363, 0.21794494717703367, 0.371348892552543, 0.24166091947189133, 0.0, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231994, 0.5070502933634892, 0.5894913061275804, 0.897273648337005, 0.3278719262150996, 0.13999999999999985, 0.0, 0.1399999999999999, 0.0, 0.09949874371066195, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 0.5487257967327581, 0.23748684174075824, 0.33166247903553975, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.36660605559646736, 0.1959591794226542, 0.48414873747640885, 0.09949874371066196, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7681145747868612, 0.21794494717703394, 1.0455142275454687, 0.21794494717703375, 0.21794494717703367, 0.0, 0.38729833462074154, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4308131845707604, 0.3192177939902478, 0.21794494717703367, 0.195959179422654, 0.0, 0.0, 0.276405499221705, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2179449471770336, 0.19595917942265423, 0.17058722109231989, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231975, 0.09949874371066199, 0.5291502622129177, 0.1705872210923199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999999, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.17058722109231986, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19595917942265415, 0.13999999999999987, 0.13999999999999985, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.41231056256176635, 0.1705872210923198, 0.4092676385936232, 0.09949874371066193, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.22158519806160307, 0.09949874371066196, 0.1705872210923197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.4534313619501843, 0.0, 0.0, 0.0, 0.17058722109231989, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999996, 0.09949874371066199, 0.17058722109231986, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066193, 0.40236799077461394, 0.0, 0.0, 0.0, 0.2984962311319857, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066196, 0.25514701644346155, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066197, 0.0, 0.09949874371066193, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.195959179422654, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -824,58 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0008294399928469179</v>
+        <v>0.01689029208803143</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3578902585893912</v>
+        <v>0.3000424126278566</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006242303321819747</v>
+        <v>0.002358295375667239</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9428601635111404</v>
+        <v>0.4542975067964845</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01934153273515724</v>
+        <v>0.01076241244124393</v>
       </c>
       <c r="G6" t="n">
-        <v>1.098931299115898</v>
+        <v>1.057236733512341</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005761870444655672</v>
+        <v>0.002318786161672978</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05791372662504799</v>
+        <v>0.009659120237202001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1042939415113024</v>
+        <v>0.1125022725476783</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005743732879520678</v>
+        <v>0.03101695283742431</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003001084793742725</v>
+        <v>0.00274749073105543</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01229274806506046</v>
+        <v>0.003225288382888284</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1192673616220604</v>
+        <v>0.1395220254617041</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0148343722212388</v>
+        <v>0.01574469024559082</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02458116863134327</v>
+        <v>0.0323853281814441</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0122624688063703</v>
+        <v>0.01103503844041699</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7513894164634394</v>
+        <v>0.2740614652070638</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06911149468154017</v>
+        <v>0.05212410875765779</v>
       </c>
     </row>
     <row r="7">
@@ -885,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9611474669653127</v>
+        <v>0.9589924712926285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7323692930720693</v>
+        <v>0.6580521496710174</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9675902319692528</v>
+        <v>0.9508488018784995</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6219191746931262</v>
+        <v>0.6011686808726753</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9630013165323572</v>
+        <v>0.9272052192018509</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7659509817391017</v>
+        <v>0.7455247321664928</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9066745715008188</v>
+        <v>0.8831578514838557</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6181337603936666</v>
+        <v>0.9448570979429437</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8230359217336068</v>
+        <v>0.819867139223831</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9542699250774699</v>
+        <v>0.9350090126110616</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9574826919895798</v>
+        <v>0.9568757981279572</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9246879873338968</v>
+        <v>0.9526333745105373</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8072947676840819</v>
+        <v>0.7513024177017593</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9463638260583167</v>
+        <v>0.9476833358507984</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9444274391945889</v>
+        <v>0.9322253881409037</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9874318140563311</v>
+        <v>0.9774647173962097</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8307483099755851</v>
+        <v>0.8476436587594339</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9699927071324325</v>
+        <v>0.9447355630841018</v>
       </c>
     </row>
     <row r="8">
@@ -946,58 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03232976726303085</v>
+        <v>0.05776804520526418</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09976268383130879</v>
+        <v>0.0751156594709626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06013957903112752</v>
+        <v>0.03247358834476836</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05372578038170649</v>
+        <v>0.04402427238180483</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03787740379474502</v>
+        <v>0.05179718194242069</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6712134650062599</v>
+        <v>0.9693379574115955</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09743942113103149</v>
+        <v>0.08409107495639788</v>
       </c>
       <c r="I8" t="n">
-        <v>0.250641998884965</v>
+        <v>1.670123904145873</v>
       </c>
       <c r="J8" t="n">
-        <v>3.74506013672065</v>
+        <v>2.230706148523304</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03017364101272251</v>
+        <v>0.04563040590541804</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4095576075777367</v>
+        <v>0.4635561957670805</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1341806710574373</v>
+        <v>0.4027437021527113</v>
       </c>
       <c r="N8" t="n">
-        <v>1.133467060239775</v>
+        <v>0.969289797140398</v>
       </c>
       <c r="O8" t="n">
-        <v>2.120317116880705</v>
+        <v>2.752161120770519</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9247010240088593</v>
+        <v>0.9548366794783965</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2974645023764069</v>
+        <v>0.3078436528168448</v>
       </c>
       <c r="R8" t="n">
-        <v>2.097198416574782</v>
+        <v>4.815819913823561</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2575898935260352</v>
+        <v>0.3633744069829735</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9531794899542366</v>
+        <v>0.9553708238887305</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7870876512064217</v>
+        <v>0.7692481050229129</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9556728769106202</v>
+        <v>0.9392140846224424</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8737153071885062</v>
+        <v>0.8124266790152846</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9427356736941894</v>
+        <v>0.9068125044293106</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7900782039033253</v>
+        <v>0.7600494703462479</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8663770991499526</v>
+        <v>0.7163484803469908</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6123213071966772</v>
+        <v>0.9426500371679558</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1762846252460789</v>
+        <v>0.1270916967271087</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9433209558417356</v>
+        <v>0.9508079675044145</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9452975616252447</v>
+        <v>0.8976804027205018</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9071054365337002</v>
+        <v>0.9254303922715903</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6920872884774525</v>
+        <v>0.4758242706406681</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9354356680673306</v>
+        <v>0.9282295244018152</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9120122443711917</v>
+        <v>0.8904273637936169</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9522478562234552</v>
+        <v>0.945121887818072</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8016699447968021</v>
+        <v>0.8105529689562014</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9587741602230155</v>
+        <v>0.932497211452093</v>
       </c>
     </row>
   </sheetData>
